--- a/models/Czech.xlsx
+++ b/models/Czech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\agroforestreeadvice_vukoz\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tadeas\Documents\GitHub\agroforestreeadvice_vukoz\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA136CFF-4B6D-4299-A1A9-809E1A04F663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978442B0-01BF-4F58-BE54-267D065D2941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataCzech" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">dataCzech!$A$1:$AG$60</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">interfaceCzech!$A$1:$W$140</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">interfaceCzech!$A$1:$W$141</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="1189">
   <si>
     <t>Scientific_name</t>
   </si>
@@ -3919,8 +3919,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A0383FAE-2175-47FE-A66F-F4DBAC7871D9}" name="interfaceCzech" displayName="interfaceCzech" ref="A1:W140" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:W140" xr:uid="{A0383FAE-2175-47FE-A66F-F4DBAC7871D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A0383FAE-2175-47FE-A66F-F4DBAC7871D9}" name="interfaceCzech" displayName="interfaceCzech" ref="A1:W141" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:W141" xr:uid="{A0383FAE-2175-47FE-A66F-F4DBAC7871D9}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{35EF2089-B6DB-4985-BF19-B5F7DC000067}" uniqueName="1" name="initialorder" queryTableFieldId="1" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{BF352F6C-B0E6-4FD9-BF16-201C1D8ADFA3}" uniqueName="2" name="side" queryTableFieldId="2" dataDxfId="20"/>
@@ -4215,47 +4215,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129E2419-4FD3-4262-817D-91DDAB0CD071}">
   <dimension ref="A1:AG60"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="58.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -5164,7 +5164,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>133</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>139</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>145</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>151</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>167</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>174</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>180</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>185</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>198</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>204</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>213</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>228</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>241</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>246</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>253</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>262</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>267</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>276</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>284</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>292</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>296</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>303</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>310</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>316</v>
       </c>
@@ -8194,7 +8194,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>324</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>330</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>335</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>341</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>348</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>353</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>358</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>364</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>370</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>376</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>384</v>
       </c>
@@ -9305,7 +9305,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>390</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>395</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>401</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>406</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>412</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>418</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>424</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>430</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>437</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>441</v>
       </c>
@@ -10325,40 +10325,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B5B70AE-B538-47B6-8F8D-6DAD6B719CF9}">
-  <dimension ref="A1:W140"/>
+  <dimension ref="A1:W141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="40.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="62.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="57.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>446</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -10713,7 +10713,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -10724,67 +10724,28 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>497</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>498</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6" t="s">
-        <v>499</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>500</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>501</v>
-      </c>
-      <c r="L6" t="s">
-        <v>502</v>
-      </c>
-      <c r="M6" t="s">
-        <v>503</v>
-      </c>
-      <c r="N6" t="s">
-        <v>504</v>
-      </c>
-      <c r="O6" t="s">
-        <v>505</v>
-      </c>
-      <c r="P6" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>507</v>
-      </c>
-      <c r="R6" t="s">
-        <v>508</v>
-      </c>
-      <c r="S6" t="s">
-        <v>509</v>
-      </c>
-      <c r="T6" t="s">
-        <v>510</v>
-      </c>
-      <c r="U6" t="s">
-        <v>511</v>
-      </c>
-      <c r="V6" t="s">
-        <v>512</v>
-      </c>
-      <c r="W6" t="s">
-        <v>513</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -10801,7 +10762,7 @@
         <v>497</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
         <v>498</v>
@@ -10816,7 +10777,7 @@
         <v>500</v>
       </c>
       <c r="K7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="L7" t="s">
         <v>502</v>
@@ -10825,7 +10786,7 @@
         <v>503</v>
       </c>
       <c r="N7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="O7" t="s">
         <v>505</v>
@@ -10834,16 +10795,16 @@
         <v>506</v>
       </c>
       <c r="Q7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="R7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="S7" t="s">
         <v>509</v>
       </c>
       <c r="T7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="U7" t="s">
         <v>511</v>
@@ -10852,10 +10813,10 @@
         <v>512</v>
       </c>
       <c r="W7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -10872,7 +10833,7 @@
         <v>497</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
         <v>498</v>
@@ -10887,16 +10848,16 @@
         <v>500</v>
       </c>
       <c r="K8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="L8" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="M8" t="s">
         <v>503</v>
       </c>
       <c r="N8" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="O8" t="s">
         <v>505</v>
@@ -10905,7 +10866,7 @@
         <v>506</v>
       </c>
       <c r="Q8" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="R8" t="s">
         <v>517</v>
@@ -10914,7 +10875,7 @@
         <v>509</v>
       </c>
       <c r="T8" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="U8" t="s">
         <v>511</v>
@@ -10923,10 +10884,10 @@
         <v>512</v>
       </c>
       <c r="W8" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -10943,7 +10904,7 @@
         <v>497</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
         <v>498</v>
@@ -10958,16 +10919,16 @@
         <v>500</v>
       </c>
       <c r="K9" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="L9" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="M9" t="s">
         <v>503</v>
       </c>
       <c r="N9" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="O9" t="s">
         <v>505</v>
@@ -10976,7 +10937,7 @@
         <v>506</v>
       </c>
       <c r="Q9" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="R9" t="s">
         <v>517</v>
@@ -10985,7 +10946,7 @@
         <v>509</v>
       </c>
       <c r="T9" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="U9" t="s">
         <v>511</v>
@@ -10994,81 +10955,81 @@
         <v>512</v>
       </c>
       <c r="W9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>496</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10" t="s">
+        <v>497</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>498</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>499</v>
+      </c>
+      <c r="J10" t="s">
+        <v>500</v>
+      </c>
+      <c r="K10" t="s">
+        <v>526</v>
+      </c>
+      <c r="L10" t="s">
+        <v>502</v>
+      </c>
+      <c r="M10" t="s">
+        <v>503</v>
+      </c>
+      <c r="N10" t="s">
+        <v>527</v>
+      </c>
+      <c r="O10" t="s">
+        <v>505</v>
+      </c>
+      <c r="P10" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>528</v>
+      </c>
+      <c r="R10" t="s">
+        <v>517</v>
+      </c>
+      <c r="S10" t="s">
+        <v>509</v>
+      </c>
+      <c r="T10" t="s">
+        <v>529</v>
+      </c>
+      <c r="U10" t="s">
+        <v>511</v>
+      </c>
+      <c r="V10" t="s">
+        <v>512</v>
+      </c>
+      <c r="W10" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>469</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>531</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>532</v>
-      </c>
-      <c r="G10" t="s">
-        <v>533</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10" t="s">
-        <v>534</v>
-      </c>
-      <c r="J10" t="s">
-        <v>535</v>
-      </c>
-      <c r="K10" t="s">
-        <v>532</v>
-      </c>
-      <c r="L10" t="s">
-        <v>536</v>
-      </c>
-      <c r="M10" t="s">
-        <v>537</v>
-      </c>
-      <c r="N10" t="s">
-        <v>532</v>
-      </c>
-      <c r="O10" t="s">
-        <v>538</v>
-      </c>
-      <c r="P10" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>532</v>
-      </c>
-      <c r="R10" t="s">
-        <v>540</v>
-      </c>
-      <c r="S10" t="s">
-        <v>541</v>
-      </c>
-      <c r="T10" t="s">
-        <v>532</v>
-      </c>
-      <c r="U10" t="s">
-        <v>542</v>
-      </c>
-      <c r="V10" t="s">
-        <v>543</v>
-      </c>
-      <c r="W10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -11085,7 +11046,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="G11" t="s">
         <v>533</v>
@@ -11100,16 +11061,16 @@
         <v>535</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="L11" t="s">
         <v>536</v>
       </c>
       <c r="M11" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="O11" t="s">
         <v>538</v>
@@ -11118,7 +11079,7 @@
         <v>539</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="R11" t="s">
         <v>540</v>
@@ -11127,7 +11088,7 @@
         <v>541</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="U11" t="s">
         <v>542</v>
@@ -11136,10 +11097,10 @@
         <v>543</v>
       </c>
       <c r="W11" t="s">
-        <v>80</v>
+        <v>532</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -11153,64 +11114,64 @@
         <v>531</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>545</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
         <v>534</v>
       </c>
       <c r="J12" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="K12" t="s">
-        <v>427</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s">
         <v>536</v>
       </c>
       <c r="M12" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="N12" t="s">
-        <v>548</v>
+        <v>80</v>
       </c>
       <c r="O12" t="s">
         <v>538</v>
       </c>
       <c r="P12" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="Q12" t="s">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
         <v>540</v>
       </c>
       <c r="S12" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="T12" t="s">
-        <v>552</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s">
         <v>542</v>
       </c>
       <c r="V12" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="W12" t="s">
-        <v>554</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -11227,7 +11188,7 @@
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="G13" t="s">
         <v>546</v>
@@ -11242,7 +11203,7 @@
         <v>547</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>427</v>
       </c>
       <c r="L13" t="s">
         <v>536</v>
@@ -11251,7 +11212,7 @@
         <v>547</v>
       </c>
       <c r="N13" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="O13" t="s">
         <v>538</v>
@@ -11260,7 +11221,7 @@
         <v>549</v>
       </c>
       <c r="Q13" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="R13" t="s">
         <v>540</v>
@@ -11269,7 +11230,7 @@
         <v>551</v>
       </c>
       <c r="T13" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="U13" t="s">
         <v>542</v>
@@ -11278,10 +11239,10 @@
         <v>553</v>
       </c>
       <c r="W13" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -11298,7 +11259,7 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G14" t="s">
         <v>546</v>
@@ -11313,7 +11274,7 @@
         <v>547</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s">
         <v>536</v>
@@ -11322,16 +11283,16 @@
         <v>547</v>
       </c>
       <c r="N14" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="O14" t="s">
         <v>538</v>
       </c>
       <c r="P14" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="Q14" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="R14" t="s">
         <v>540</v>
@@ -11340,7 +11301,7 @@
         <v>551</v>
       </c>
       <c r="T14" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="U14" t="s">
         <v>542</v>
@@ -11349,10 +11310,10 @@
         <v>553</v>
       </c>
       <c r="W14" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -11369,7 +11330,7 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>560</v>
       </c>
       <c r="G15" t="s">
         <v>546</v>
@@ -11384,7 +11345,7 @@
         <v>547</v>
       </c>
       <c r="K15" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
         <v>536</v>
@@ -11393,7 +11354,7 @@
         <v>547</v>
       </c>
       <c r="N15" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="O15" t="s">
         <v>538</v>
@@ -11402,7 +11363,7 @@
         <v>562</v>
       </c>
       <c r="Q15" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="R15" t="s">
         <v>540</v>
@@ -11411,7 +11372,7 @@
         <v>551</v>
       </c>
       <c r="T15" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="U15" t="s">
         <v>542</v>
@@ -11420,10 +11381,10 @@
         <v>553</v>
       </c>
       <c r="W15" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -11440,7 +11401,7 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>570</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s">
         <v>546</v>
@@ -11455,7 +11416,7 @@
         <v>547</v>
       </c>
       <c r="K16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="L16" t="s">
         <v>536</v>
@@ -11464,7 +11425,7 @@
         <v>547</v>
       </c>
       <c r="N16" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="O16" t="s">
         <v>538</v>
@@ -11473,7 +11434,7 @@
         <v>562</v>
       </c>
       <c r="Q16" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="R16" t="s">
         <v>540</v>
@@ -11482,7 +11443,7 @@
         <v>551</v>
       </c>
       <c r="T16" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="U16" t="s">
         <v>542</v>
@@ -11491,10 +11452,10 @@
         <v>553</v>
       </c>
       <c r="W16" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -11508,64 +11469,64 @@
         <v>531</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>570</v>
       </c>
       <c r="G17" t="s">
         <v>546</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" t="s">
         <v>534</v>
       </c>
       <c r="J17" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="K17" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L17" t="s">
         <v>536</v>
       </c>
       <c r="M17" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="N17" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="O17" t="s">
         <v>538</v>
       </c>
       <c r="P17" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="Q17" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="R17" t="s">
         <v>540</v>
       </c>
       <c r="S17" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="T17" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="U17" t="s">
         <v>542</v>
       </c>
       <c r="V17" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="W17" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -11582,7 +11543,7 @@
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
         <v>546</v>
@@ -11597,7 +11558,7 @@
         <v>575</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="L18" t="s">
         <v>536</v>
@@ -11606,7 +11567,7 @@
         <v>576</v>
       </c>
       <c r="N18" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="O18" t="s">
         <v>538</v>
@@ -11615,7 +11576,7 @@
         <v>578</v>
       </c>
       <c r="Q18" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="R18" t="s">
         <v>540</v>
@@ -11624,7 +11585,7 @@
         <v>580</v>
       </c>
       <c r="T18" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="U18" t="s">
         <v>542</v>
@@ -11633,10 +11594,10 @@
         <v>582</v>
       </c>
       <c r="W18" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -11653,7 +11614,7 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
         <v>546</v>
@@ -11668,7 +11629,7 @@
         <v>575</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s">
         <v>536</v>
@@ -11677,7 +11638,7 @@
         <v>576</v>
       </c>
       <c r="N19" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="O19" t="s">
         <v>538</v>
@@ -11686,16 +11647,16 @@
         <v>578</v>
       </c>
       <c r="Q19" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="R19" t="s">
         <v>540</v>
       </c>
       <c r="S19" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="T19" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="U19" t="s">
         <v>542</v>
@@ -11704,10 +11665,10 @@
         <v>582</v>
       </c>
       <c r="W19" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -11724,13 +11685,13 @@
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>593</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
         <v>546</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
         <v>534</v>
@@ -11739,7 +11700,7 @@
         <v>575</v>
       </c>
       <c r="K20" t="s">
-        <v>379</v>
+        <v>39</v>
       </c>
       <c r="L20" t="s">
         <v>536</v>
@@ -11748,7 +11709,7 @@
         <v>576</v>
       </c>
       <c r="N20" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="O20" t="s">
         <v>538</v>
@@ -11757,16 +11718,16 @@
         <v>578</v>
       </c>
       <c r="Q20" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="R20" t="s">
         <v>540</v>
       </c>
       <c r="S20" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="T20" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="U20" t="s">
         <v>542</v>
@@ -11775,27 +11736,27 @@
         <v>582</v>
       </c>
       <c r="W20" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>599</v>
+        <v>469</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="G21" t="s">
         <v>546</v>
@@ -11804,52 +11765,52 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>602</v>
+        <v>534</v>
       </c>
       <c r="J21" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="K21" t="s">
-        <v>601</v>
+        <v>379</v>
       </c>
       <c r="L21" t="s">
-        <v>604</v>
+        <v>536</v>
       </c>
       <c r="M21" t="s">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="N21" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="O21" t="s">
-        <v>607</v>
+        <v>538</v>
       </c>
       <c r="P21" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
       <c r="Q21" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="R21" t="s">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="S21" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="T21" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="U21" t="s">
-        <v>613</v>
+        <v>542</v>
       </c>
       <c r="V21" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="W21" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -11866,7 +11827,7 @@
         <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>601</v>
       </c>
       <c r="G22" t="s">
         <v>546</v>
@@ -11881,16 +11842,16 @@
         <v>603</v>
       </c>
       <c r="K22" t="s">
-        <v>81</v>
+        <v>601</v>
       </c>
       <c r="L22" t="s">
         <v>604</v>
       </c>
       <c r="M22" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="N22" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="O22" t="s">
         <v>607</v>
@@ -11899,7 +11860,7 @@
         <v>608</v>
       </c>
       <c r="Q22" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="R22" t="s">
         <v>610</v>
@@ -11908,7 +11869,7 @@
         <v>611</v>
       </c>
       <c r="T22" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="U22" t="s">
         <v>613</v>
@@ -11917,10 +11878,10 @@
         <v>614</v>
       </c>
       <c r="W22" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -11937,7 +11898,7 @@
         <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>618</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
         <v>546</v>
@@ -11952,16 +11913,16 @@
         <v>603</v>
       </c>
       <c r="K23" t="s">
-        <v>618</v>
+        <v>81</v>
       </c>
       <c r="L23" t="s">
         <v>604</v>
       </c>
       <c r="M23" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="N23" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="O23" t="s">
         <v>607</v>
@@ -11970,7 +11931,7 @@
         <v>608</v>
       </c>
       <c r="Q23" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="R23" t="s">
         <v>610</v>
@@ -11979,7 +11940,7 @@
         <v>611</v>
       </c>
       <c r="T23" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="U23" t="s">
         <v>613</v>
@@ -11988,10 +11949,10 @@
         <v>614</v>
       </c>
       <c r="W23" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -12008,7 +11969,7 @@
         <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G24" t="s">
         <v>546</v>
@@ -12023,25 +11984,25 @@
         <v>603</v>
       </c>
       <c r="K24" t="s">
-        <v>48</v>
+        <v>618</v>
       </c>
       <c r="L24" t="s">
         <v>604</v>
       </c>
       <c r="M24" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="N24" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="O24" t="s">
         <v>607</v>
       </c>
       <c r="P24" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="Q24" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="R24" t="s">
         <v>610</v>
@@ -12050,7 +12011,7 @@
         <v>611</v>
       </c>
       <c r="T24" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="U24" t="s">
         <v>613</v>
@@ -12059,10 +12020,10 @@
         <v>614</v>
       </c>
       <c r="W24" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -12076,13 +12037,13 @@
         <v>600</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>532</v>
+        <v>624</v>
       </c>
       <c r="G25" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -12091,49 +12052,49 @@
         <v>602</v>
       </c>
       <c r="J25" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="K25" t="s">
-        <v>532</v>
+        <v>48</v>
       </c>
       <c r="L25" t="s">
         <v>604</v>
       </c>
       <c r="M25" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="N25" t="s">
-        <v>532</v>
+        <v>625</v>
       </c>
       <c r="O25" t="s">
         <v>607</v>
       </c>
       <c r="P25" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="Q25" t="s">
-        <v>532</v>
+        <v>627</v>
       </c>
       <c r="R25" t="s">
         <v>610</v>
       </c>
       <c r="S25" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="T25" t="s">
-        <v>532</v>
+        <v>628</v>
       </c>
       <c r="U25" t="s">
         <v>613</v>
       </c>
       <c r="V25" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="W25" t="s">
-        <v>532</v>
+        <v>629</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -12150,7 +12111,7 @@
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>635</v>
+        <v>532</v>
       </c>
       <c r="G26" t="s">
         <v>533</v>
@@ -12165,7 +12126,7 @@
         <v>630</v>
       </c>
       <c r="K26" t="s">
-        <v>635</v>
+        <v>532</v>
       </c>
       <c r="L26" t="s">
         <v>604</v>
@@ -12174,7 +12135,7 @@
         <v>631</v>
       </c>
       <c r="N26" t="s">
-        <v>635</v>
+        <v>532</v>
       </c>
       <c r="O26" t="s">
         <v>607</v>
@@ -12183,7 +12144,7 @@
         <v>632</v>
       </c>
       <c r="Q26" t="s">
-        <v>635</v>
+        <v>532</v>
       </c>
       <c r="R26" t="s">
         <v>610</v>
@@ -12192,7 +12153,7 @@
         <v>633</v>
       </c>
       <c r="T26" t="s">
-        <v>635</v>
+        <v>532</v>
       </c>
       <c r="U26" t="s">
         <v>613</v>
@@ -12201,10 +12162,10 @@
         <v>634</v>
       </c>
       <c r="W26" t="s">
-        <v>635</v>
+        <v>532</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -12218,13 +12179,13 @@
         <v>600</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>635</v>
       </c>
       <c r="G27" t="s">
-        <v>636</v>
+        <v>533</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -12233,49 +12194,49 @@
         <v>602</v>
       </c>
       <c r="J27" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="K27" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L27" t="s">
         <v>604</v>
       </c>
       <c r="M27" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
       <c r="N27" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="O27" t="s">
         <v>607</v>
       </c>
       <c r="P27" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="Q27" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="R27" t="s">
         <v>610</v>
       </c>
       <c r="S27" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="T27" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="U27" t="s">
         <v>613</v>
       </c>
       <c r="V27" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="W27" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -12289,64 +12250,64 @@
         <v>600</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G28" t="s">
         <v>636</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="s">
         <v>602</v>
       </c>
       <c r="J28" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="K28" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="L28" t="s">
         <v>604</v>
       </c>
       <c r="M28" t="s">
-        <v>644</v>
+        <v>604</v>
       </c>
       <c r="N28" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="O28" t="s">
         <v>607</v>
       </c>
       <c r="P28" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="Q28" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="R28" t="s">
         <v>610</v>
       </c>
       <c r="S28" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="T28" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="U28" t="s">
         <v>613</v>
       </c>
       <c r="V28" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="W28" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -12357,67 +12318,67 @@
         <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="E29" t="s">
-        <v>648</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>546</v>
+        <v>636</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>649</v>
+        <v>602</v>
       </c>
       <c r="J29" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="K29" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="L29" t="s">
-        <v>652</v>
+        <v>604</v>
       </c>
       <c r="M29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="N29" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="O29" t="s">
-        <v>655</v>
+        <v>607</v>
       </c>
       <c r="P29" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="Q29" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="R29" t="s">
-        <v>658</v>
+        <v>610</v>
       </c>
       <c r="S29" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="T29" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="U29" t="s">
-        <v>661</v>
+        <v>613</v>
       </c>
       <c r="V29" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="W29" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -12434,7 +12395,7 @@
         <v>648</v>
       </c>
       <c r="F30" t="s">
-        <v>664</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
         <v>546</v>
@@ -12449,34 +12410,34 @@
         <v>650</v>
       </c>
       <c r="K30" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="L30" t="s">
         <v>652</v>
       </c>
       <c r="M30" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="N30" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="O30" t="s">
         <v>655</v>
       </c>
       <c r="P30" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="Q30" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="R30" t="s">
         <v>658</v>
       </c>
       <c r="S30" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="T30" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="U30" t="s">
         <v>661</v>
@@ -12485,10 +12446,10 @@
         <v>662</v>
       </c>
       <c r="W30" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -12505,7 +12466,7 @@
         <v>648</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>664</v>
       </c>
       <c r="G31" t="s">
         <v>546</v>
@@ -12520,7 +12481,7 @@
         <v>650</v>
       </c>
       <c r="K31" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="L31" t="s">
         <v>652</v>
@@ -12529,25 +12490,25 @@
         <v>666</v>
       </c>
       <c r="N31" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="O31" t="s">
         <v>655</v>
       </c>
       <c r="P31" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="Q31" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="R31" t="s">
         <v>658</v>
       </c>
       <c r="S31" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="T31" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="U31" t="s">
         <v>661</v>
@@ -12556,10 +12517,10 @@
         <v>662</v>
       </c>
       <c r="W31" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -12576,7 +12537,7 @@
         <v>648</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
         <v>546</v>
@@ -12591,7 +12552,7 @@
         <v>650</v>
       </c>
       <c r="K32" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="L32" t="s">
         <v>652</v>
@@ -12600,25 +12561,25 @@
         <v>666</v>
       </c>
       <c r="N32" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="O32" t="s">
         <v>655</v>
       </c>
       <c r="P32" t="s">
-        <v>656</v>
+        <v>673</v>
       </c>
       <c r="Q32" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="R32" t="s">
         <v>658</v>
       </c>
       <c r="S32" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="T32" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="U32" t="s">
         <v>661</v>
@@ -12627,10 +12588,10 @@
         <v>662</v>
       </c>
       <c r="W32" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -12644,10 +12605,10 @@
         <v>647</v>
       </c>
       <c r="E33" t="s">
-        <v>684</v>
+        <v>648</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G33" t="s">
         <v>546</v>
@@ -12659,49 +12620,49 @@
         <v>649</v>
       </c>
       <c r="J33" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="K33" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="L33" t="s">
         <v>652</v>
       </c>
       <c r="M33" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="N33" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="O33" t="s">
         <v>655</v>
       </c>
       <c r="P33" t="s">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="Q33" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="R33" t="s">
         <v>658</v>
       </c>
       <c r="S33" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="T33" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="U33" t="s">
         <v>661</v>
       </c>
       <c r="V33" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="W33" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -12718,7 +12679,7 @@
         <v>684</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
         <v>546</v>
@@ -12733,16 +12694,16 @@
         <v>685</v>
       </c>
       <c r="K34" t="s">
-        <v>665</v>
+        <v>686</v>
       </c>
       <c r="L34" t="s">
-        <v>695</v>
+        <v>652</v>
       </c>
       <c r="M34" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="N34" t="s">
-        <v>667</v>
+        <v>688</v>
       </c>
       <c r="O34" t="s">
         <v>655</v>
@@ -12751,16 +12712,16 @@
         <v>689</v>
       </c>
       <c r="Q34" t="s">
-        <v>665</v>
+        <v>690</v>
       </c>
       <c r="R34" t="s">
         <v>658</v>
       </c>
       <c r="S34" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="T34" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="U34" t="s">
         <v>661</v>
@@ -12769,10 +12730,10 @@
         <v>693</v>
       </c>
       <c r="W34" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -12789,7 +12750,7 @@
         <v>684</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
         <v>546</v>
@@ -12804,34 +12765,34 @@
         <v>685</v>
       </c>
       <c r="K35" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="L35" t="s">
-        <v>652</v>
+        <v>695</v>
       </c>
       <c r="M35" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="N35" t="s">
-        <v>699</v>
+        <v>667</v>
       </c>
       <c r="O35" t="s">
         <v>655</v>
       </c>
       <c r="P35" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="Q35" t="s">
-        <v>701</v>
+        <v>665</v>
       </c>
       <c r="R35" t="s">
         <v>658</v>
       </c>
       <c r="S35" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="T35" t="s">
-        <v>703</v>
+        <v>665</v>
       </c>
       <c r="U35" t="s">
         <v>661</v>
@@ -12840,10 +12801,10 @@
         <v>693</v>
       </c>
       <c r="W35" t="s">
-        <v>704</v>
+        <v>670</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -12854,13 +12815,13 @@
         <v>45</v>
       </c>
       <c r="D36" t="s">
-        <v>600</v>
+        <v>647</v>
       </c>
       <c r="E36" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
         <v>546</v>
@@ -12869,52 +12830,52 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>602</v>
+        <v>649</v>
       </c>
       <c r="J36" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="K36" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="L36" t="s">
-        <v>604</v>
+        <v>652</v>
       </c>
       <c r="M36" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="N36" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="O36" t="s">
-        <v>607</v>
+        <v>655</v>
       </c>
       <c r="P36" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="Q36" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="R36" t="s">
-        <v>610</v>
+        <v>658</v>
       </c>
       <c r="S36" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="T36" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="U36" t="s">
-        <v>613</v>
+        <v>661</v>
       </c>
       <c r="V36" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="W36" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -12931,7 +12892,7 @@
         <v>705</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
         <v>546</v>
@@ -12946,16 +12907,16 @@
         <v>706</v>
       </c>
       <c r="K37" t="s">
-        <v>665</v>
+        <v>707</v>
       </c>
       <c r="L37" t="s">
         <v>604</v>
       </c>
       <c r="M37" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="N37" t="s">
-        <v>667</v>
+        <v>709</v>
       </c>
       <c r="O37" t="s">
         <v>607</v>
@@ -12964,7 +12925,7 @@
         <v>710</v>
       </c>
       <c r="Q37" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="R37" t="s">
         <v>610</v>
@@ -12973,7 +12934,7 @@
         <v>712</v>
       </c>
       <c r="T37" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="U37" t="s">
         <v>613</v>
@@ -12982,10 +12943,10 @@
         <v>714</v>
       </c>
       <c r="W37" t="s">
-        <v>670</v>
+        <v>715</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -13002,7 +12963,7 @@
         <v>705</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" t="s">
         <v>546</v>
@@ -13017,7 +12978,7 @@
         <v>706</v>
       </c>
       <c r="K38" t="s">
-        <v>717</v>
+        <v>665</v>
       </c>
       <c r="L38" t="s">
         <v>604</v>
@@ -13026,7 +12987,7 @@
         <v>716</v>
       </c>
       <c r="N38" t="s">
-        <v>718</v>
+        <v>667</v>
       </c>
       <c r="O38" t="s">
         <v>607</v>
@@ -13035,7 +12996,7 @@
         <v>710</v>
       </c>
       <c r="Q38" t="s">
-        <v>719</v>
+        <v>665</v>
       </c>
       <c r="R38" t="s">
         <v>610</v>
@@ -13044,7 +13005,7 @@
         <v>712</v>
       </c>
       <c r="T38" t="s">
-        <v>720</v>
+        <v>665</v>
       </c>
       <c r="U38" t="s">
         <v>613</v>
@@ -13053,78 +13014,81 @@
         <v>714</v>
       </c>
       <c r="W38" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>599</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>600</v>
+      </c>
+      <c r="E39" t="s">
+        <v>705</v>
+      </c>
+      <c r="F39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>546</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>602</v>
+      </c>
+      <c r="J39" t="s">
+        <v>706</v>
+      </c>
+      <c r="K39" t="s">
+        <v>717</v>
+      </c>
+      <c r="L39" t="s">
+        <v>604</v>
+      </c>
+      <c r="M39" t="s">
+        <v>716</v>
+      </c>
+      <c r="N39" t="s">
+        <v>718</v>
+      </c>
+      <c r="O39" t="s">
+        <v>607</v>
+      </c>
+      <c r="P39" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>719</v>
+      </c>
+      <c r="R39" t="s">
+        <v>610</v>
+      </c>
+      <c r="S39" t="s">
+        <v>712</v>
+      </c>
+      <c r="T39" t="s">
+        <v>720</v>
+      </c>
+      <c r="U39" t="s">
+        <v>613</v>
+      </c>
+      <c r="V39" t="s">
+        <v>714</v>
+      </c>
+      <c r="W39" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>496</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" t="s">
-        <v>722</v>
-      </c>
-      <c r="G39" t="s">
-        <v>498</v>
-      </c>
-      <c r="I39" t="s">
-        <v>723</v>
-      </c>
-      <c r="J39" t="s">
-        <v>723</v>
-      </c>
-      <c r="K39" t="s">
-        <v>722</v>
-      </c>
-      <c r="L39" t="s">
-        <v>724</v>
-      </c>
-      <c r="M39" t="s">
-        <v>724</v>
-      </c>
-      <c r="N39" t="s">
-        <v>725</v>
-      </c>
-      <c r="O39" t="s">
-        <v>726</v>
-      </c>
-      <c r="P39" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>728</v>
-      </c>
-      <c r="R39" t="s">
-        <v>729</v>
-      </c>
-      <c r="S39" t="s">
-        <v>729</v>
-      </c>
-      <c r="T39" t="s">
-        <v>725</v>
-      </c>
-      <c r="U39" t="s">
-        <v>730</v>
-      </c>
-      <c r="V39" t="s">
-        <v>730</v>
-      </c>
-      <c r="W39" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -13141,7 +13105,7 @@
         <v>27</v>
       </c>
       <c r="F40" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G40" t="s">
         <v>498</v>
@@ -13153,7 +13117,7 @@
         <v>723</v>
       </c>
       <c r="K40" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="L40" t="s">
         <v>724</v>
@@ -13162,7 +13126,7 @@
         <v>724</v>
       </c>
       <c r="N40" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="O40" t="s">
         <v>726</v>
@@ -13171,7 +13135,7 @@
         <v>727</v>
       </c>
       <c r="Q40" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="R40" t="s">
         <v>729</v>
@@ -13180,7 +13144,7 @@
         <v>729</v>
       </c>
       <c r="T40" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="U40" t="s">
         <v>730</v>
@@ -13189,10 +13153,10 @@
         <v>730</v>
       </c>
       <c r="W40" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -13209,7 +13173,7 @@
         <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="G41" t="s">
         <v>498</v>
@@ -13221,7 +13185,7 @@
         <v>723</v>
       </c>
       <c r="K41" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="L41" t="s">
         <v>724</v>
@@ -13230,7 +13194,7 @@
         <v>724</v>
       </c>
       <c r="N41" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="O41" t="s">
         <v>726</v>
@@ -13239,7 +13203,7 @@
         <v>727</v>
       </c>
       <c r="Q41" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="R41" t="s">
         <v>729</v>
@@ -13248,7 +13212,7 @@
         <v>729</v>
       </c>
       <c r="T41" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="U41" t="s">
         <v>730</v>
@@ -13257,10 +13221,10 @@
         <v>730</v>
       </c>
       <c r="W41" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -13277,7 +13241,7 @@
         <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>381</v>
+        <v>737</v>
       </c>
       <c r="G42" t="s">
         <v>498</v>
@@ -13289,7 +13253,7 @@
         <v>723</v>
       </c>
       <c r="K42" t="s">
-        <v>381</v>
+        <v>737</v>
       </c>
       <c r="L42" t="s">
         <v>724</v>
@@ -13298,7 +13262,7 @@
         <v>724</v>
       </c>
       <c r="N42" t="s">
-        <v>381</v>
+        <v>738</v>
       </c>
       <c r="O42" t="s">
         <v>726</v>
@@ -13307,7 +13271,7 @@
         <v>727</v>
       </c>
       <c r="Q42" t="s">
-        <v>381</v>
+        <v>739</v>
       </c>
       <c r="R42" t="s">
         <v>729</v>
@@ -13316,7 +13280,7 @@
         <v>729</v>
       </c>
       <c r="T42" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="U42" t="s">
         <v>730</v>
@@ -13325,10 +13289,10 @@
         <v>730</v>
       </c>
       <c r="W42" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -13345,7 +13309,7 @@
         <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>744</v>
+        <v>381</v>
       </c>
       <c r="G43" t="s">
         <v>498</v>
@@ -13357,7 +13321,7 @@
         <v>723</v>
       </c>
       <c r="K43" t="s">
-        <v>744</v>
+        <v>381</v>
       </c>
       <c r="L43" t="s">
         <v>724</v>
@@ -13366,7 +13330,7 @@
         <v>724</v>
       </c>
       <c r="N43" t="s">
-        <v>745</v>
+        <v>381</v>
       </c>
       <c r="O43" t="s">
         <v>726</v>
@@ -13375,7 +13339,7 @@
         <v>727</v>
       </c>
       <c r="Q43" t="s">
-        <v>744</v>
+        <v>381</v>
       </c>
       <c r="R43" t="s">
         <v>729</v>
@@ -13384,7 +13348,7 @@
         <v>729</v>
       </c>
       <c r="T43" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="U43" t="s">
         <v>730</v>
@@ -13393,10 +13357,10 @@
         <v>730</v>
       </c>
       <c r="W43" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -13413,7 +13377,7 @@
         <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G44" t="s">
         <v>498</v>
@@ -13425,7 +13389,7 @@
         <v>723</v>
       </c>
       <c r="K44" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="L44" t="s">
         <v>724</v>
@@ -13434,7 +13398,7 @@
         <v>724</v>
       </c>
       <c r="N44" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="O44" t="s">
         <v>726</v>
@@ -13443,7 +13407,7 @@
         <v>727</v>
       </c>
       <c r="Q44" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="R44" t="s">
         <v>729</v>
@@ -13452,7 +13416,7 @@
         <v>729</v>
       </c>
       <c r="T44" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="U44" t="s">
         <v>730</v>
@@ -13461,10 +13425,10 @@
         <v>730</v>
       </c>
       <c r="W44" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -13481,7 +13445,7 @@
         <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G45" t="s">
         <v>498</v>
@@ -13493,7 +13457,7 @@
         <v>723</v>
       </c>
       <c r="K45" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="L45" t="s">
         <v>724</v>
@@ -13502,7 +13466,7 @@
         <v>724</v>
       </c>
       <c r="N45" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="O45" t="s">
         <v>726</v>
@@ -13511,7 +13475,7 @@
         <v>727</v>
       </c>
       <c r="Q45" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="R45" t="s">
         <v>729</v>
@@ -13520,7 +13484,7 @@
         <v>729</v>
       </c>
       <c r="T45" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="U45" t="s">
         <v>730</v>
@@ -13529,10 +13493,10 @@
         <v>730</v>
       </c>
       <c r="W45" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -13549,7 +13513,7 @@
         <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>327</v>
+        <v>753</v>
       </c>
       <c r="G46" t="s">
         <v>498</v>
@@ -13561,7 +13525,7 @@
         <v>723</v>
       </c>
       <c r="K46" t="s">
-        <v>327</v>
+        <v>753</v>
       </c>
       <c r="L46" t="s">
         <v>724</v>
@@ -13570,7 +13534,7 @@
         <v>724</v>
       </c>
       <c r="N46" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="O46" t="s">
         <v>726</v>
@@ -13588,7 +13552,7 @@
         <v>729</v>
       </c>
       <c r="T46" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="U46" t="s">
         <v>730</v>
@@ -13597,10 +13561,10 @@
         <v>730</v>
       </c>
       <c r="W46" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -13617,7 +13581,7 @@
         <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>761</v>
+        <v>327</v>
       </c>
       <c r="G47" t="s">
         <v>498</v>
@@ -13629,7 +13593,7 @@
         <v>723</v>
       </c>
       <c r="K47" t="s">
-        <v>761</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s">
         <v>724</v>
@@ -13638,7 +13602,7 @@
         <v>724</v>
       </c>
       <c r="N47" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="O47" t="s">
         <v>726</v>
@@ -13647,7 +13611,7 @@
         <v>727</v>
       </c>
       <c r="Q47" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="R47" t="s">
         <v>729</v>
@@ -13656,7 +13620,7 @@
         <v>729</v>
       </c>
       <c r="T47" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="U47" t="s">
         <v>730</v>
@@ -13665,10 +13629,10 @@
         <v>730</v>
       </c>
       <c r="W47" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -13685,7 +13649,7 @@
         <v>27</v>
       </c>
       <c r="F48" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="G48" t="s">
         <v>498</v>
@@ -13697,7 +13661,7 @@
         <v>723</v>
       </c>
       <c r="K48" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="L48" t="s">
         <v>724</v>
@@ -13706,7 +13670,7 @@
         <v>724</v>
       </c>
       <c r="N48" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="O48" t="s">
         <v>726</v>
@@ -13715,7 +13679,7 @@
         <v>727</v>
       </c>
       <c r="Q48" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="R48" t="s">
         <v>729</v>
@@ -13724,7 +13688,7 @@
         <v>729</v>
       </c>
       <c r="T48" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="U48" t="s">
         <v>730</v>
@@ -13733,10 +13697,10 @@
         <v>730</v>
       </c>
       <c r="W48" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -13753,7 +13717,7 @@
         <v>27</v>
       </c>
       <c r="F49" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="G49" t="s">
         <v>498</v>
@@ -13765,7 +13729,7 @@
         <v>723</v>
       </c>
       <c r="K49" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="L49" t="s">
         <v>724</v>
@@ -13774,7 +13738,7 @@
         <v>724</v>
       </c>
       <c r="N49" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="O49" t="s">
         <v>726</v>
@@ -13783,7 +13747,7 @@
         <v>727</v>
       </c>
       <c r="Q49" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="R49" t="s">
         <v>729</v>
@@ -13792,7 +13756,7 @@
         <v>729</v>
       </c>
       <c r="T49" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="U49" t="s">
         <v>730</v>
@@ -13801,10 +13765,10 @@
         <v>730</v>
       </c>
       <c r="W49" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -13821,7 +13785,7 @@
         <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G50" t="s">
         <v>498</v>
@@ -13833,7 +13797,7 @@
         <v>723</v>
       </c>
       <c r="K50" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="L50" t="s">
         <v>724</v>
@@ -13842,7 +13806,7 @@
         <v>724</v>
       </c>
       <c r="N50" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="O50" t="s">
         <v>726</v>
@@ -13851,7 +13815,7 @@
         <v>727</v>
       </c>
       <c r="Q50" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="R50" t="s">
         <v>729</v>
@@ -13860,7 +13824,7 @@
         <v>729</v>
       </c>
       <c r="T50" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="U50" t="s">
         <v>730</v>
@@ -13869,10 +13833,10 @@
         <v>730</v>
       </c>
       <c r="W50" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -13889,7 +13853,7 @@
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G51" t="s">
         <v>498</v>
@@ -13901,7 +13865,7 @@
         <v>723</v>
       </c>
       <c r="K51" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="L51" t="s">
         <v>724</v>
@@ -13910,7 +13874,7 @@
         <v>724</v>
       </c>
       <c r="N51" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="O51" t="s">
         <v>726</v>
@@ -13919,7 +13883,7 @@
         <v>727</v>
       </c>
       <c r="Q51" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="R51" t="s">
         <v>729</v>
@@ -13928,7 +13892,7 @@
         <v>729</v>
       </c>
       <c r="T51" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="U51" t="s">
         <v>730</v>
@@ -13937,10 +13901,10 @@
         <v>730</v>
       </c>
       <c r="W51" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -13957,7 +13921,7 @@
         <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>113</v>
+        <v>781</v>
       </c>
       <c r="G52" t="s">
         <v>498</v>
@@ -13969,7 +13933,7 @@
         <v>723</v>
       </c>
       <c r="K52" t="s">
-        <v>113</v>
+        <v>781</v>
       </c>
       <c r="L52" t="s">
         <v>724</v>
@@ -13978,7 +13942,7 @@
         <v>724</v>
       </c>
       <c r="N52" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="O52" t="s">
         <v>726</v>
@@ -13996,7 +13960,7 @@
         <v>729</v>
       </c>
       <c r="T52" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="U52" t="s">
         <v>730</v>
@@ -14005,10 +13969,10 @@
         <v>730</v>
       </c>
       <c r="W52" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -14025,7 +13989,7 @@
         <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>789</v>
+        <v>113</v>
       </c>
       <c r="G53" t="s">
         <v>498</v>
@@ -14037,7 +14001,7 @@
         <v>723</v>
       </c>
       <c r="K53" t="s">
-        <v>789</v>
+        <v>113</v>
       </c>
       <c r="L53" t="s">
         <v>724</v>
@@ -14046,7 +14010,7 @@
         <v>724</v>
       </c>
       <c r="N53" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="O53" t="s">
         <v>726</v>
@@ -14055,7 +14019,7 @@
         <v>727</v>
       </c>
       <c r="Q53" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="R53" t="s">
         <v>729</v>
@@ -14064,7 +14028,7 @@
         <v>729</v>
       </c>
       <c r="T53" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="U53" t="s">
         <v>730</v>
@@ -14073,10 +14037,10 @@
         <v>730</v>
       </c>
       <c r="W53" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -14093,7 +14057,7 @@
         <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G54" t="s">
         <v>498</v>
@@ -14105,7 +14069,7 @@
         <v>723</v>
       </c>
       <c r="K54" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="L54" t="s">
         <v>724</v>
@@ -14114,7 +14078,7 @@
         <v>724</v>
       </c>
       <c r="N54" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="O54" t="s">
         <v>726</v>
@@ -14123,7 +14087,7 @@
         <v>727</v>
       </c>
       <c r="Q54" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="R54" t="s">
         <v>729</v>
@@ -14132,7 +14096,7 @@
         <v>729</v>
       </c>
       <c r="T54" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="U54" t="s">
         <v>730</v>
@@ -14141,10 +14105,10 @@
         <v>730</v>
       </c>
       <c r="W54" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
@@ -14161,7 +14125,7 @@
         <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="G55" t="s">
         <v>498</v>
@@ -14173,7 +14137,7 @@
         <v>723</v>
       </c>
       <c r="K55" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="L55" t="s">
         <v>724</v>
@@ -14182,7 +14146,7 @@
         <v>724</v>
       </c>
       <c r="N55" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="O55" t="s">
         <v>726</v>
@@ -14191,7 +14155,7 @@
         <v>727</v>
       </c>
       <c r="Q55" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="R55" t="s">
         <v>729</v>
@@ -14200,7 +14164,7 @@
         <v>729</v>
       </c>
       <c r="T55" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="U55" t="s">
         <v>730</v>
@@ -14209,10 +14173,10 @@
         <v>730</v>
       </c>
       <c r="W55" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -14229,7 +14193,7 @@
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="G56" t="s">
         <v>498</v>
@@ -14241,7 +14205,7 @@
         <v>723</v>
       </c>
       <c r="K56" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="L56" t="s">
         <v>724</v>
@@ -14250,7 +14214,7 @@
         <v>724</v>
       </c>
       <c r="N56" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="O56" t="s">
         <v>726</v>
@@ -14259,7 +14223,7 @@
         <v>727</v>
       </c>
       <c r="Q56" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="R56" t="s">
         <v>729</v>
@@ -14268,7 +14232,7 @@
         <v>729</v>
       </c>
       <c r="T56" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="U56" t="s">
         <v>730</v>
@@ -14277,10 +14241,10 @@
         <v>730</v>
       </c>
       <c r="W56" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -14297,7 +14261,7 @@
         <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="G57" t="s">
         <v>498</v>
@@ -14309,7 +14273,7 @@
         <v>723</v>
       </c>
       <c r="K57" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="L57" t="s">
         <v>724</v>
@@ -14318,7 +14282,7 @@
         <v>724</v>
       </c>
       <c r="N57" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="O57" t="s">
         <v>726</v>
@@ -14327,7 +14291,7 @@
         <v>727</v>
       </c>
       <c r="Q57" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="R57" t="s">
         <v>729</v>
@@ -14336,7 +14300,7 @@
         <v>729</v>
       </c>
       <c r="T57" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="U57" t="s">
         <v>730</v>
@@ -14345,10 +14309,10 @@
         <v>730</v>
       </c>
       <c r="W57" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -14365,7 +14329,7 @@
         <v>27</v>
       </c>
       <c r="F58" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G58" t="s">
         <v>498</v>
@@ -14377,7 +14341,7 @@
         <v>723</v>
       </c>
       <c r="K58" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="L58" t="s">
         <v>724</v>
@@ -14386,7 +14350,7 @@
         <v>724</v>
       </c>
       <c r="N58" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="O58" t="s">
         <v>726</v>
@@ -14395,7 +14359,7 @@
         <v>727</v>
       </c>
       <c r="Q58" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="R58" t="s">
         <v>729</v>
@@ -14404,7 +14368,7 @@
         <v>729</v>
       </c>
       <c r="T58" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="U58" t="s">
         <v>730</v>
@@ -14413,10 +14377,10 @@
         <v>730</v>
       </c>
       <c r="W58" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>45</v>
       </c>
@@ -14433,7 +14397,7 @@
         <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="G59" t="s">
         <v>498</v>
@@ -14445,7 +14409,7 @@
         <v>723</v>
       </c>
       <c r="K59" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="L59" t="s">
         <v>724</v>
@@ -14454,7 +14418,7 @@
         <v>724</v>
       </c>
       <c r="N59" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="O59" t="s">
         <v>726</v>
@@ -14463,7 +14427,7 @@
         <v>727</v>
       </c>
       <c r="Q59" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="R59" t="s">
         <v>729</v>
@@ -14472,7 +14436,7 @@
         <v>729</v>
       </c>
       <c r="T59" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="U59" t="s">
         <v>730</v>
@@ -14481,10 +14445,10 @@
         <v>730</v>
       </c>
       <c r="W59" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -14501,7 +14465,7 @@
         <v>27</v>
       </c>
       <c r="F60" t="s">
-        <v>225</v>
+        <v>816</v>
       </c>
       <c r="G60" t="s">
         <v>498</v>
@@ -14513,7 +14477,7 @@
         <v>723</v>
       </c>
       <c r="K60" t="s">
-        <v>225</v>
+        <v>816</v>
       </c>
       <c r="L60" t="s">
         <v>724</v>
@@ -14522,7 +14486,7 @@
         <v>724</v>
       </c>
       <c r="N60" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="O60" t="s">
         <v>726</v>
@@ -14531,7 +14495,7 @@
         <v>727</v>
       </c>
       <c r="Q60" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="R60" t="s">
         <v>729</v>
@@ -14540,7 +14504,7 @@
         <v>729</v>
       </c>
       <c r="T60" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="U60" t="s">
         <v>730</v>
@@ -14549,10 +14513,10 @@
         <v>730</v>
       </c>
       <c r="W60" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>45</v>
       </c>
@@ -14569,7 +14533,7 @@
         <v>27</v>
       </c>
       <c r="F61" t="s">
-        <v>825</v>
+        <v>225</v>
       </c>
       <c r="G61" t="s">
         <v>498</v>
@@ -14581,7 +14545,7 @@
         <v>723</v>
       </c>
       <c r="K61" t="s">
-        <v>825</v>
+        <v>225</v>
       </c>
       <c r="L61" t="s">
         <v>724</v>
@@ -14590,7 +14554,7 @@
         <v>724</v>
       </c>
       <c r="N61" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="O61" t="s">
         <v>726</v>
@@ -14599,7 +14563,7 @@
         <v>727</v>
       </c>
       <c r="Q61" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="R61" t="s">
         <v>729</v>
@@ -14608,7 +14572,7 @@
         <v>729</v>
       </c>
       <c r="T61" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="U61" t="s">
         <v>730</v>
@@ -14617,10 +14581,10 @@
         <v>730</v>
       </c>
       <c r="W61" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -14637,7 +14601,7 @@
         <v>27</v>
       </c>
       <c r="F62" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="G62" t="s">
         <v>498</v>
@@ -14649,7 +14613,7 @@
         <v>723</v>
       </c>
       <c r="K62" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="L62" t="s">
         <v>724</v>
@@ -14658,7 +14622,7 @@
         <v>724</v>
       </c>
       <c r="N62" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="O62" t="s">
         <v>726</v>
@@ -14667,7 +14631,7 @@
         <v>727</v>
       </c>
       <c r="Q62" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="R62" t="s">
         <v>729</v>
@@ -14676,7 +14640,7 @@
         <v>729</v>
       </c>
       <c r="T62" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="U62" t="s">
         <v>730</v>
@@ -14685,10 +14649,10 @@
         <v>730</v>
       </c>
       <c r="W62" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -14705,7 +14669,7 @@
         <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>177</v>
+        <v>830</v>
       </c>
       <c r="G63" t="s">
         <v>498</v>
@@ -14717,7 +14681,7 @@
         <v>723</v>
       </c>
       <c r="K63" t="s">
-        <v>177</v>
+        <v>830</v>
       </c>
       <c r="L63" t="s">
         <v>724</v>
@@ -14726,7 +14690,7 @@
         <v>724</v>
       </c>
       <c r="N63" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="O63" t="s">
         <v>726</v>
@@ -14735,7 +14699,7 @@
         <v>727</v>
       </c>
       <c r="Q63" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="R63" t="s">
         <v>729</v>
@@ -14744,7 +14708,7 @@
         <v>729</v>
       </c>
       <c r="T63" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="U63" t="s">
         <v>730</v>
@@ -14753,10 +14717,10 @@
         <v>730</v>
       </c>
       <c r="W63" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -14773,7 +14737,7 @@
         <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>839</v>
+        <v>177</v>
       </c>
       <c r="G64" t="s">
         <v>498</v>
@@ -14785,7 +14749,7 @@
         <v>723</v>
       </c>
       <c r="K64" t="s">
-        <v>839</v>
+        <v>177</v>
       </c>
       <c r="L64" t="s">
         <v>724</v>
@@ -14794,7 +14758,7 @@
         <v>724</v>
       </c>
       <c r="N64" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="O64" t="s">
         <v>726</v>
@@ -14803,7 +14767,7 @@
         <v>727</v>
       </c>
       <c r="Q64" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="R64" t="s">
         <v>729</v>
@@ -14812,7 +14776,7 @@
         <v>729</v>
       </c>
       <c r="T64" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="U64" t="s">
         <v>730</v>
@@ -14821,10 +14785,10 @@
         <v>730</v>
       </c>
       <c r="W64" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -14841,7 +14805,7 @@
         <v>27</v>
       </c>
       <c r="F65" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G65" t="s">
         <v>498</v>
@@ -14853,7 +14817,7 @@
         <v>723</v>
       </c>
       <c r="K65" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="L65" t="s">
         <v>724</v>
@@ -14862,7 +14826,7 @@
         <v>724</v>
       </c>
       <c r="N65" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="O65" t="s">
         <v>726</v>
@@ -14871,7 +14835,7 @@
         <v>727</v>
       </c>
       <c r="Q65" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="R65" t="s">
         <v>729</v>
@@ -14880,7 +14844,7 @@
         <v>729</v>
       </c>
       <c r="T65" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="U65" t="s">
         <v>730</v>
@@ -14889,10 +14853,10 @@
         <v>730</v>
       </c>
       <c r="W65" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -14909,7 +14873,7 @@
         <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G66" t="s">
         <v>498</v>
@@ -14921,7 +14885,7 @@
         <v>723</v>
       </c>
       <c r="K66" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="L66" t="s">
         <v>724</v>
@@ -14930,7 +14894,7 @@
         <v>724</v>
       </c>
       <c r="N66" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="O66" t="s">
         <v>726</v>
@@ -14939,7 +14903,7 @@
         <v>727</v>
       </c>
       <c r="Q66" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="R66" t="s">
         <v>729</v>
@@ -14948,7 +14912,7 @@
         <v>729</v>
       </c>
       <c r="T66" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="U66" t="s">
         <v>730</v>
@@ -14957,10 +14921,10 @@
         <v>730</v>
       </c>
       <c r="W66" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>45</v>
       </c>
@@ -14977,7 +14941,7 @@
         <v>27</v>
       </c>
       <c r="F67" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="G67" t="s">
         <v>498</v>
@@ -14989,7 +14953,7 @@
         <v>723</v>
       </c>
       <c r="K67" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="L67" t="s">
         <v>724</v>
@@ -14998,7 +14962,7 @@
         <v>724</v>
       </c>
       <c r="N67" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="O67" t="s">
         <v>726</v>
@@ -15007,7 +14971,7 @@
         <v>727</v>
       </c>
       <c r="Q67" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="R67" t="s">
         <v>729</v>
@@ -15016,7 +14980,7 @@
         <v>729</v>
       </c>
       <c r="T67" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="U67" t="s">
         <v>730</v>
@@ -15025,10 +14989,10 @@
         <v>730</v>
       </c>
       <c r="W67" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>45</v>
       </c>
@@ -15045,7 +15009,7 @@
         <v>27</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>854</v>
       </c>
       <c r="G68" t="s">
         <v>498</v>
@@ -15057,7 +15021,7 @@
         <v>723</v>
       </c>
       <c r="K68" t="s">
-        <v>85</v>
+        <v>854</v>
       </c>
       <c r="L68" t="s">
         <v>724</v>
@@ -15066,7 +15030,7 @@
         <v>724</v>
       </c>
       <c r="N68" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="O68" t="s">
         <v>726</v>
@@ -15075,7 +15039,7 @@
         <v>727</v>
       </c>
       <c r="Q68" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="R68" t="s">
         <v>729</v>
@@ -15084,7 +15048,7 @@
         <v>729</v>
       </c>
       <c r="T68" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="U68" t="s">
         <v>730</v>
@@ -15093,10 +15057,10 @@
         <v>730</v>
       </c>
       <c r="W68" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>45</v>
       </c>
@@ -15113,7 +15077,7 @@
         <v>27</v>
       </c>
       <c r="F69" t="s">
-        <v>863</v>
+        <v>85</v>
       </c>
       <c r="G69" t="s">
         <v>498</v>
@@ -15125,7 +15089,7 @@
         <v>723</v>
       </c>
       <c r="K69" t="s">
-        <v>863</v>
+        <v>85</v>
       </c>
       <c r="L69" t="s">
         <v>724</v>
@@ -15134,7 +15098,7 @@
         <v>724</v>
       </c>
       <c r="N69" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="O69" t="s">
         <v>726</v>
@@ -15143,7 +15107,7 @@
         <v>727</v>
       </c>
       <c r="Q69" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="R69" t="s">
         <v>729</v>
@@ -15152,7 +15116,7 @@
         <v>729</v>
       </c>
       <c r="T69" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="U69" t="s">
         <v>730</v>
@@ -15161,10 +15125,10 @@
         <v>730</v>
       </c>
       <c r="W69" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>45</v>
       </c>
@@ -15181,7 +15145,7 @@
         <v>27</v>
       </c>
       <c r="F70" t="s">
-        <v>288</v>
+        <v>863</v>
       </c>
       <c r="G70" t="s">
         <v>498</v>
@@ -15193,7 +15157,7 @@
         <v>723</v>
       </c>
       <c r="K70" t="s">
-        <v>288</v>
+        <v>863</v>
       </c>
       <c r="L70" t="s">
         <v>724</v>
@@ -15202,7 +15166,7 @@
         <v>724</v>
       </c>
       <c r="N70" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="O70" t="s">
         <v>726</v>
@@ -15211,7 +15175,7 @@
         <v>727</v>
       </c>
       <c r="Q70" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="R70" t="s">
         <v>729</v>
@@ -15220,7 +15184,7 @@
         <v>729</v>
       </c>
       <c r="T70" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="U70" t="s">
         <v>730</v>
@@ -15229,10 +15193,10 @@
         <v>730</v>
       </c>
       <c r="W70" t="s">
-        <v>741</v>
+        <v>867</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>45</v>
       </c>
@@ -15243,64 +15207,64 @@
         <v>45</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F71" t="s">
-        <v>871</v>
+        <v>288</v>
       </c>
       <c r="G71" t="s">
         <v>498</v>
       </c>
       <c r="I71" t="s">
-        <v>872</v>
+        <v>723</v>
       </c>
       <c r="J71" t="s">
-        <v>872</v>
+        <v>723</v>
       </c>
       <c r="K71" t="s">
-        <v>871</v>
+        <v>288</v>
       </c>
       <c r="L71" t="s">
-        <v>873</v>
+        <v>724</v>
       </c>
       <c r="M71" t="s">
-        <v>873</v>
+        <v>724</v>
       </c>
       <c r="N71" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="O71" t="s">
-        <v>875</v>
+        <v>726</v>
       </c>
       <c r="P71" t="s">
-        <v>876</v>
+        <v>727</v>
       </c>
       <c r="Q71" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="R71" t="s">
-        <v>878</v>
+        <v>729</v>
       </c>
       <c r="S71" t="s">
-        <v>878</v>
+        <v>729</v>
       </c>
       <c r="T71" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="U71" t="s">
-        <v>880</v>
+        <v>730</v>
       </c>
       <c r="V71" t="s">
-        <v>880</v>
+        <v>730</v>
       </c>
       <c r="W71" t="s">
-        <v>881</v>
+        <v>741</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>45</v>
       </c>
@@ -15317,7 +15281,7 @@
         <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
+        <v>871</v>
       </c>
       <c r="G72" t="s">
         <v>498</v>
@@ -15329,7 +15293,7 @@
         <v>872</v>
       </c>
       <c r="K72" t="s">
-        <v>72</v>
+        <v>871</v>
       </c>
       <c r="L72" t="s">
         <v>873</v>
@@ -15338,7 +15302,7 @@
         <v>873</v>
       </c>
       <c r="N72" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="O72" t="s">
         <v>875</v>
@@ -15347,7 +15311,7 @@
         <v>876</v>
       </c>
       <c r="Q72" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="R72" t="s">
         <v>878</v>
@@ -15356,7 +15320,7 @@
         <v>878</v>
       </c>
       <c r="T72" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="U72" t="s">
         <v>880</v>
@@ -15365,10 +15329,10 @@
         <v>880</v>
       </c>
       <c r="W72" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>45</v>
       </c>
@@ -15385,7 +15349,7 @@
         <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>886</v>
+        <v>72</v>
       </c>
       <c r="G73" t="s">
         <v>498</v>
@@ -15397,7 +15361,7 @@
         <v>872</v>
       </c>
       <c r="K73" t="s">
-        <v>886</v>
+        <v>72</v>
       </c>
       <c r="L73" t="s">
         <v>873</v>
@@ -15406,7 +15370,7 @@
         <v>873</v>
       </c>
       <c r="N73" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="O73" t="s">
         <v>875</v>
@@ -15415,7 +15379,7 @@
         <v>876</v>
       </c>
       <c r="Q73" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="R73" t="s">
         <v>878</v>
@@ -15424,7 +15388,7 @@
         <v>878</v>
       </c>
       <c r="T73" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="U73" t="s">
         <v>880</v>
@@ -15433,10 +15397,10 @@
         <v>880</v>
       </c>
       <c r="W73" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>45</v>
       </c>
@@ -15453,7 +15417,7 @@
         <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="G74" t="s">
         <v>498</v>
@@ -15465,7 +15429,7 @@
         <v>872</v>
       </c>
       <c r="K74" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="L74" t="s">
         <v>873</v>
@@ -15474,7 +15438,7 @@
         <v>873</v>
       </c>
       <c r="N74" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="O74" t="s">
         <v>875</v>
@@ -15483,7 +15447,7 @@
         <v>876</v>
       </c>
       <c r="Q74" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="R74" t="s">
         <v>878</v>
@@ -15492,7 +15456,7 @@
         <v>878</v>
       </c>
       <c r="T74" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="U74" t="s">
         <v>880</v>
@@ -15501,10 +15465,10 @@
         <v>880</v>
       </c>
       <c r="W74" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -15521,7 +15485,7 @@
         <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G75" t="s">
         <v>498</v>
@@ -15533,7 +15497,7 @@
         <v>872</v>
       </c>
       <c r="K75" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="L75" t="s">
         <v>873</v>
@@ -15542,7 +15506,7 @@
         <v>873</v>
       </c>
       <c r="N75" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="O75" t="s">
         <v>875</v>
@@ -15551,7 +15515,7 @@
         <v>876</v>
       </c>
       <c r="Q75" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="R75" t="s">
         <v>878</v>
@@ -15560,7 +15524,7 @@
         <v>878</v>
       </c>
       <c r="T75" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="U75" t="s">
         <v>880</v>
@@ -15569,10 +15533,10 @@
         <v>880</v>
       </c>
       <c r="W75" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>45</v>
       </c>
@@ -15589,7 +15553,7 @@
         <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="G76" t="s">
         <v>498</v>
@@ -15601,7 +15565,7 @@
         <v>872</v>
       </c>
       <c r="K76" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="L76" t="s">
         <v>873</v>
@@ -15610,7 +15574,7 @@
         <v>873</v>
       </c>
       <c r="N76" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="O76" t="s">
         <v>875</v>
@@ -15619,7 +15583,7 @@
         <v>876</v>
       </c>
       <c r="Q76" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="R76" t="s">
         <v>878</v>
@@ -15628,7 +15592,7 @@
         <v>878</v>
       </c>
       <c r="T76" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="U76" t="s">
         <v>880</v>
@@ -15637,10 +15601,10 @@
         <v>880</v>
       </c>
       <c r="W76" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>45</v>
       </c>
@@ -15657,7 +15621,7 @@
         <v>28</v>
       </c>
       <c r="F77" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="G77" t="s">
         <v>498</v>
@@ -15669,7 +15633,7 @@
         <v>872</v>
       </c>
       <c r="K77" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="L77" t="s">
         <v>873</v>
@@ -15678,7 +15642,7 @@
         <v>873</v>
       </c>
       <c r="N77" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="O77" t="s">
         <v>875</v>
@@ -15687,7 +15651,7 @@
         <v>876</v>
       </c>
       <c r="Q77" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="R77" t="s">
         <v>878</v>
@@ -15696,7 +15660,7 @@
         <v>878</v>
       </c>
       <c r="T77" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="U77" t="s">
         <v>880</v>
@@ -15705,10 +15669,10 @@
         <v>880</v>
       </c>
       <c r="W77" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>45</v>
       </c>
@@ -15725,7 +15689,7 @@
         <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>388</v>
+        <v>906</v>
       </c>
       <c r="G78" t="s">
         <v>498</v>
@@ -15737,7 +15701,7 @@
         <v>872</v>
       </c>
       <c r="K78" t="s">
-        <v>388</v>
+        <v>906</v>
       </c>
       <c r="L78" t="s">
         <v>873</v>
@@ -15746,7 +15710,7 @@
         <v>873</v>
       </c>
       <c r="N78" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="O78" t="s">
         <v>875</v>
@@ -15755,7 +15719,7 @@
         <v>876</v>
       </c>
       <c r="Q78" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="R78" t="s">
         <v>878</v>
@@ -15764,7 +15728,7 @@
         <v>878</v>
       </c>
       <c r="T78" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="U78" t="s">
         <v>880</v>
@@ -15773,10 +15737,10 @@
         <v>880</v>
       </c>
       <c r="W78" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -15793,7 +15757,7 @@
         <v>28</v>
       </c>
       <c r="F79" t="s">
-        <v>915</v>
+        <v>388</v>
       </c>
       <c r="G79" t="s">
         <v>498</v>
@@ -15805,7 +15769,7 @@
         <v>872</v>
       </c>
       <c r="K79" t="s">
-        <v>915</v>
+        <v>388</v>
       </c>
       <c r="L79" t="s">
         <v>873</v>
@@ -15814,7 +15778,7 @@
         <v>873</v>
       </c>
       <c r="N79" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="O79" t="s">
         <v>875</v>
@@ -15823,7 +15787,7 @@
         <v>876</v>
       </c>
       <c r="Q79" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="R79" t="s">
         <v>878</v>
@@ -15832,7 +15796,7 @@
         <v>878</v>
       </c>
       <c r="T79" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="U79" t="s">
         <v>880</v>
@@ -15841,10 +15805,10 @@
         <v>880</v>
       </c>
       <c r="W79" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>45</v>
       </c>
@@ -15861,7 +15825,7 @@
         <v>28</v>
       </c>
       <c r="F80" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="G80" t="s">
         <v>498</v>
@@ -15873,7 +15837,7 @@
         <v>872</v>
       </c>
       <c r="K80" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="L80" t="s">
         <v>873</v>
@@ -15882,7 +15846,7 @@
         <v>873</v>
       </c>
       <c r="N80" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="O80" t="s">
         <v>875</v>
@@ -15891,7 +15855,7 @@
         <v>876</v>
       </c>
       <c r="Q80" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="R80" t="s">
         <v>878</v>
@@ -15900,7 +15864,7 @@
         <v>878</v>
       </c>
       <c r="T80" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="U80" t="s">
         <v>880</v>
@@ -15909,10 +15873,10 @@
         <v>880</v>
       </c>
       <c r="W80" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -15929,7 +15893,7 @@
         <v>28</v>
       </c>
       <c r="F81" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="G81" t="s">
         <v>498</v>
@@ -15941,7 +15905,7 @@
         <v>872</v>
       </c>
       <c r="K81" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="L81" t="s">
         <v>873</v>
@@ -15950,7 +15914,7 @@
         <v>873</v>
       </c>
       <c r="N81" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="O81" t="s">
         <v>875</v>
@@ -15959,7 +15923,7 @@
         <v>876</v>
       </c>
       <c r="Q81" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="R81" t="s">
         <v>878</v>
@@ -15968,7 +15932,7 @@
         <v>878</v>
       </c>
       <c r="T81" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="U81" t="s">
         <v>880</v>
@@ -15977,10 +15941,10 @@
         <v>880</v>
       </c>
       <c r="W81" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -15997,7 +15961,7 @@
         <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="G82" t="s">
         <v>498</v>
@@ -16009,7 +15973,7 @@
         <v>872</v>
       </c>
       <c r="K82" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="L82" t="s">
         <v>873</v>
@@ -16018,7 +15982,7 @@
         <v>873</v>
       </c>
       <c r="N82" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="O82" t="s">
         <v>875</v>
@@ -16027,7 +15991,7 @@
         <v>876</v>
       </c>
       <c r="Q82" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="R82" t="s">
         <v>878</v>
@@ -16036,7 +16000,7 @@
         <v>878</v>
       </c>
       <c r="T82" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="U82" t="s">
         <v>880</v>
@@ -16045,10 +16009,10 @@
         <v>880</v>
       </c>
       <c r="W82" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>45</v>
       </c>
@@ -16065,7 +16029,7 @@
         <v>28</v>
       </c>
       <c r="F83" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="G83" t="s">
         <v>498</v>
@@ -16077,7 +16041,7 @@
         <v>872</v>
       </c>
       <c r="K83" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="L83" t="s">
         <v>873</v>
@@ -16086,7 +16050,7 @@
         <v>873</v>
       </c>
       <c r="N83" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="O83" t="s">
         <v>875</v>
@@ -16095,7 +16059,7 @@
         <v>876</v>
       </c>
       <c r="Q83" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="R83" t="s">
         <v>878</v>
@@ -16104,7 +16068,7 @@
         <v>878</v>
       </c>
       <c r="T83" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="U83" t="s">
         <v>880</v>
@@ -16113,10 +16077,10 @@
         <v>880</v>
       </c>
       <c r="W83" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>45</v>
       </c>
@@ -16133,7 +16097,7 @@
         <v>28</v>
       </c>
       <c r="F84" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="G84" t="s">
         <v>498</v>
@@ -16145,7 +16109,7 @@
         <v>872</v>
       </c>
       <c r="K84" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="L84" t="s">
         <v>873</v>
@@ -16154,7 +16118,7 @@
         <v>873</v>
       </c>
       <c r="N84" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="O84" t="s">
         <v>875</v>
@@ -16163,7 +16127,7 @@
         <v>876</v>
       </c>
       <c r="Q84" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="R84" t="s">
         <v>878</v>
@@ -16172,7 +16136,7 @@
         <v>878</v>
       </c>
       <c r="T84" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="U84" t="s">
         <v>880</v>
@@ -16181,10 +16145,10 @@
         <v>880</v>
       </c>
       <c r="W84" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
@@ -16201,7 +16165,7 @@
         <v>28</v>
       </c>
       <c r="F85" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="G85" t="s">
         <v>498</v>
@@ -16213,7 +16177,7 @@
         <v>872</v>
       </c>
       <c r="K85" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="L85" t="s">
         <v>873</v>
@@ -16222,7 +16186,7 @@
         <v>873</v>
       </c>
       <c r="N85" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="O85" t="s">
         <v>875</v>
@@ -16231,7 +16195,7 @@
         <v>876</v>
       </c>
       <c r="Q85" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="R85" t="s">
         <v>878</v>
@@ -16240,7 +16204,7 @@
         <v>878</v>
       </c>
       <c r="T85" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="U85" t="s">
         <v>880</v>
@@ -16249,10 +16213,10 @@
         <v>880</v>
       </c>
       <c r="W85" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>45</v>
       </c>
@@ -16269,7 +16233,7 @@
         <v>28</v>
       </c>
       <c r="F86" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="G86" t="s">
         <v>498</v>
@@ -16281,7 +16245,7 @@
         <v>872</v>
       </c>
       <c r="K86" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="L86" t="s">
         <v>873</v>
@@ -16290,7 +16254,7 @@
         <v>873</v>
       </c>
       <c r="N86" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="O86" t="s">
         <v>875</v>
@@ -16299,7 +16263,7 @@
         <v>876</v>
       </c>
       <c r="Q86" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="R86" t="s">
         <v>878</v>
@@ -16308,7 +16272,7 @@
         <v>878</v>
       </c>
       <c r="T86" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="U86" t="s">
         <v>880</v>
@@ -16317,10 +16281,10 @@
         <v>880</v>
       </c>
       <c r="W86" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>45</v>
       </c>
@@ -16337,7 +16301,7 @@
         <v>28</v>
       </c>
       <c r="F87" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="G87" t="s">
         <v>498</v>
@@ -16349,7 +16313,7 @@
         <v>872</v>
       </c>
       <c r="K87" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="L87" t="s">
         <v>873</v>
@@ -16358,7 +16322,7 @@
         <v>873</v>
       </c>
       <c r="N87" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="O87" t="s">
         <v>875</v>
@@ -16367,7 +16331,7 @@
         <v>876</v>
       </c>
       <c r="Q87" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="R87" t="s">
         <v>878</v>
@@ -16376,7 +16340,7 @@
         <v>878</v>
       </c>
       <c r="T87" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="U87" t="s">
         <v>880</v>
@@ -16385,10 +16349,10 @@
         <v>880</v>
       </c>
       <c r="W87" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>45</v>
       </c>
@@ -16405,7 +16369,7 @@
         <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="G88" t="s">
         <v>498</v>
@@ -16417,7 +16381,7 @@
         <v>872</v>
       </c>
       <c r="K88" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="L88" t="s">
         <v>873</v>
@@ -16426,7 +16390,7 @@
         <v>873</v>
       </c>
       <c r="N88" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="O88" t="s">
         <v>875</v>
@@ -16444,7 +16408,7 @@
         <v>878</v>
       </c>
       <c r="T88" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="U88" t="s">
         <v>880</v>
@@ -16453,10 +16417,10 @@
         <v>880</v>
       </c>
       <c r="W88" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>45</v>
       </c>
@@ -16473,7 +16437,7 @@
         <v>28</v>
       </c>
       <c r="F89" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="G89" t="s">
         <v>498</v>
@@ -16485,7 +16449,7 @@
         <v>872</v>
       </c>
       <c r="K89" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="L89" t="s">
         <v>873</v>
@@ -16494,7 +16458,7 @@
         <v>873</v>
       </c>
       <c r="N89" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="O89" t="s">
         <v>875</v>
@@ -16503,7 +16467,7 @@
         <v>876</v>
       </c>
       <c r="Q89" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="R89" t="s">
         <v>878</v>
@@ -16512,7 +16476,7 @@
         <v>878</v>
       </c>
       <c r="T89" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="U89" t="s">
         <v>880</v>
@@ -16521,10 +16485,10 @@
         <v>880</v>
       </c>
       <c r="W89" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>45</v>
       </c>
@@ -16541,7 +16505,7 @@
         <v>28</v>
       </c>
       <c r="F90" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="G90" t="s">
         <v>498</v>
@@ -16553,7 +16517,7 @@
         <v>872</v>
       </c>
       <c r="K90" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="L90" t="s">
         <v>873</v>
@@ -16562,7 +16526,7 @@
         <v>873</v>
       </c>
       <c r="N90" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="O90" t="s">
         <v>875</v>
@@ -16571,7 +16535,7 @@
         <v>876</v>
       </c>
       <c r="Q90" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="R90" t="s">
         <v>878</v>
@@ -16580,7 +16544,7 @@
         <v>878</v>
       </c>
       <c r="T90" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="U90" t="s">
         <v>880</v>
@@ -16589,10 +16553,10 @@
         <v>880</v>
       </c>
       <c r="W90" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>45</v>
       </c>
@@ -16609,7 +16573,7 @@
         <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="G91" t="s">
         <v>498</v>
@@ -16621,7 +16585,7 @@
         <v>872</v>
       </c>
       <c r="K91" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="L91" t="s">
         <v>873</v>
@@ -16630,7 +16594,7 @@
         <v>873</v>
       </c>
       <c r="N91" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="O91" t="s">
         <v>875</v>
@@ -16639,7 +16603,7 @@
         <v>876</v>
       </c>
       <c r="Q91" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="R91" t="s">
         <v>878</v>
@@ -16648,7 +16612,7 @@
         <v>878</v>
       </c>
       <c r="T91" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="U91" t="s">
         <v>880</v>
@@ -16657,10 +16621,10 @@
         <v>880</v>
       </c>
       <c r="W91" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -16677,7 +16641,7 @@
         <v>28</v>
       </c>
       <c r="F92" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="G92" t="s">
         <v>498</v>
@@ -16689,7 +16653,7 @@
         <v>872</v>
       </c>
       <c r="K92" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="L92" t="s">
         <v>873</v>
@@ -16698,7 +16662,7 @@
         <v>873</v>
       </c>
       <c r="N92" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="O92" t="s">
         <v>875</v>
@@ -16707,7 +16671,7 @@
         <v>876</v>
       </c>
       <c r="Q92" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="R92" t="s">
         <v>878</v>
@@ -16716,7 +16680,7 @@
         <v>878</v>
       </c>
       <c r="T92" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="U92" t="s">
         <v>880</v>
@@ -16725,10 +16689,10 @@
         <v>880</v>
       </c>
       <c r="W92" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -16745,7 +16709,7 @@
         <v>28</v>
       </c>
       <c r="F93" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="G93" t="s">
         <v>498</v>
@@ -16757,7 +16721,7 @@
         <v>872</v>
       </c>
       <c r="K93" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="L93" t="s">
         <v>873</v>
@@ -16766,7 +16730,7 @@
         <v>873</v>
       </c>
       <c r="N93" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="O93" t="s">
         <v>875</v>
@@ -16775,7 +16739,7 @@
         <v>876</v>
       </c>
       <c r="Q93" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="R93" t="s">
         <v>878</v>
@@ -16784,7 +16748,7 @@
         <v>878</v>
       </c>
       <c r="T93" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="U93" t="s">
         <v>880</v>
@@ -16793,10 +16757,10 @@
         <v>880</v>
       </c>
       <c r="W93" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -16813,7 +16777,7 @@
         <v>28</v>
       </c>
       <c r="F94" t="s">
-        <v>96</v>
+        <v>981</v>
       </c>
       <c r="G94" t="s">
         <v>498</v>
@@ -16825,7 +16789,7 @@
         <v>872</v>
       </c>
       <c r="K94" t="s">
-        <v>96</v>
+        <v>981</v>
       </c>
       <c r="L94" t="s">
         <v>873</v>
@@ -16834,7 +16798,7 @@
         <v>873</v>
       </c>
       <c r="N94" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="O94" t="s">
         <v>875</v>
@@ -16843,7 +16807,7 @@
         <v>876</v>
       </c>
       <c r="Q94" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="R94" t="s">
         <v>878</v>
@@ -16852,7 +16816,7 @@
         <v>878</v>
       </c>
       <c r="T94" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="U94" t="s">
         <v>880</v>
@@ -16861,10 +16825,10 @@
         <v>880</v>
       </c>
       <c r="W94" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -16881,7 +16845,7 @@
         <v>28</v>
       </c>
       <c r="F95" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="G95" t="s">
         <v>498</v>
@@ -16893,7 +16857,7 @@
         <v>872</v>
       </c>
       <c r="K95" t="s">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="L95" t="s">
         <v>873</v>
@@ -16902,7 +16866,7 @@
         <v>873</v>
       </c>
       <c r="N95" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="O95" t="s">
         <v>875</v>
@@ -16911,7 +16875,7 @@
         <v>876</v>
       </c>
       <c r="Q95" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="R95" t="s">
         <v>878</v>
@@ -16920,7 +16884,7 @@
         <v>878</v>
       </c>
       <c r="T95" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="U95" t="s">
         <v>880</v>
@@ -16929,10 +16893,10 @@
         <v>880</v>
       </c>
       <c r="W95" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>45</v>
       </c>
@@ -16949,7 +16913,7 @@
         <v>28</v>
       </c>
       <c r="F96" t="s">
-        <v>994</v>
+        <v>183</v>
       </c>
       <c r="G96" t="s">
         <v>498</v>
@@ -16961,7 +16925,7 @@
         <v>872</v>
       </c>
       <c r="K96" t="s">
-        <v>994</v>
+        <v>183</v>
       </c>
       <c r="L96" t="s">
         <v>873</v>
@@ -16970,7 +16934,7 @@
         <v>873</v>
       </c>
       <c r="N96" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="O96" t="s">
         <v>875</v>
@@ -16979,7 +16943,7 @@
         <v>876</v>
       </c>
       <c r="Q96" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="R96" t="s">
         <v>878</v>
@@ -16988,7 +16952,7 @@
         <v>878</v>
       </c>
       <c r="T96" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="U96" t="s">
         <v>880</v>
@@ -16997,10 +16961,10 @@
         <v>880</v>
       </c>
       <c r="W96" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>45</v>
       </c>
@@ -17017,7 +16981,7 @@
         <v>28</v>
       </c>
       <c r="F97" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G97" t="s">
         <v>498</v>
@@ -17029,7 +16993,7 @@
         <v>872</v>
       </c>
       <c r="K97" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="L97" t="s">
         <v>873</v>
@@ -17038,7 +17002,7 @@
         <v>873</v>
       </c>
       <c r="N97" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="O97" t="s">
         <v>875</v>
@@ -17047,7 +17011,7 @@
         <v>876</v>
       </c>
       <c r="Q97" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="R97" t="s">
         <v>878</v>
@@ -17056,7 +17020,7 @@
         <v>878</v>
       </c>
       <c r="T97" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="U97" t="s">
         <v>880</v>
@@ -17065,10 +17029,10 @@
         <v>880</v>
       </c>
       <c r="W97" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>45</v>
       </c>
@@ -17085,7 +17049,7 @@
         <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="G98" t="s">
         <v>498</v>
@@ -17097,7 +17061,7 @@
         <v>872</v>
       </c>
       <c r="K98" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="L98" t="s">
         <v>873</v>
@@ -17106,7 +17070,7 @@
         <v>873</v>
       </c>
       <c r="N98" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="O98" t="s">
         <v>875</v>
@@ -17115,7 +17079,7 @@
         <v>876</v>
       </c>
       <c r="Q98" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="R98" t="s">
         <v>878</v>
@@ -17124,7 +17088,7 @@
         <v>878</v>
       </c>
       <c r="T98" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="U98" t="s">
         <v>880</v>
@@ -17133,10 +17097,10 @@
         <v>880</v>
       </c>
       <c r="W98" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>45</v>
       </c>
@@ -17153,7 +17117,7 @@
         <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="G99" t="s">
         <v>498</v>
@@ -17165,7 +17129,7 @@
         <v>872</v>
       </c>
       <c r="K99" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="L99" t="s">
         <v>873</v>
@@ -17174,7 +17138,7 @@
         <v>873</v>
       </c>
       <c r="N99" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="O99" t="s">
         <v>875</v>
@@ -17183,7 +17147,7 @@
         <v>876</v>
       </c>
       <c r="Q99" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="R99" t="s">
         <v>878</v>
@@ -17192,7 +17156,7 @@
         <v>878</v>
       </c>
       <c r="T99" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="U99" t="s">
         <v>880</v>
@@ -17201,10 +17165,10 @@
         <v>880</v>
       </c>
       <c r="W99" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>45</v>
       </c>
@@ -17221,7 +17185,7 @@
         <v>28</v>
       </c>
       <c r="F100" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="G100" t="s">
         <v>498</v>
@@ -17233,7 +17197,7 @@
         <v>872</v>
       </c>
       <c r="K100" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="L100" t="s">
         <v>873</v>
@@ -17242,7 +17206,7 @@
         <v>873</v>
       </c>
       <c r="N100" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="O100" t="s">
         <v>875</v>
@@ -17251,7 +17215,7 @@
         <v>876</v>
       </c>
       <c r="Q100" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="R100" t="s">
         <v>878</v>
@@ -17260,7 +17224,7 @@
         <v>878</v>
       </c>
       <c r="T100" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="U100" t="s">
         <v>880</v>
@@ -17269,10 +17233,10 @@
         <v>880</v>
       </c>
       <c r="W100" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>45</v>
       </c>
@@ -17289,7 +17253,7 @@
         <v>28</v>
       </c>
       <c r="F101" t="s">
-        <v>155</v>
+        <v>1011</v>
       </c>
       <c r="G101" t="s">
         <v>498</v>
@@ -17301,7 +17265,7 @@
         <v>872</v>
       </c>
       <c r="K101" t="s">
-        <v>155</v>
+        <v>1011</v>
       </c>
       <c r="L101" t="s">
         <v>873</v>
@@ -17310,7 +17274,7 @@
         <v>873</v>
       </c>
       <c r="N101" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="O101" t="s">
         <v>875</v>
@@ -17319,7 +17283,7 @@
         <v>876</v>
       </c>
       <c r="Q101" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="R101" t="s">
         <v>878</v>
@@ -17328,7 +17292,7 @@
         <v>878</v>
       </c>
       <c r="T101" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="U101" t="s">
         <v>880</v>
@@ -17337,10 +17301,10 @@
         <v>880</v>
       </c>
       <c r="W101" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>45</v>
       </c>
@@ -17357,7 +17321,7 @@
         <v>28</v>
       </c>
       <c r="F102" t="s">
-        <v>1020</v>
+        <v>155</v>
       </c>
       <c r="G102" t="s">
         <v>498</v>
@@ -17369,7 +17333,7 @@
         <v>872</v>
       </c>
       <c r="K102" t="s">
-        <v>1020</v>
+        <v>155</v>
       </c>
       <c r="L102" t="s">
         <v>873</v>
@@ -17378,7 +17342,7 @@
         <v>873</v>
       </c>
       <c r="N102" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="O102" t="s">
         <v>875</v>
@@ -17387,7 +17351,7 @@
         <v>876</v>
       </c>
       <c r="Q102" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="R102" t="s">
         <v>878</v>
@@ -17396,7 +17360,7 @@
         <v>878</v>
       </c>
       <c r="T102" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="U102" t="s">
         <v>880</v>
@@ -17405,10 +17369,10 @@
         <v>880</v>
       </c>
       <c r="W102" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>45</v>
       </c>
@@ -17425,7 +17389,7 @@
         <v>28</v>
       </c>
       <c r="F103" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="G103" t="s">
         <v>498</v>
@@ -17437,7 +17401,7 @@
         <v>872</v>
       </c>
       <c r="K103" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="L103" t="s">
         <v>873</v>
@@ -17446,7 +17410,7 @@
         <v>873</v>
       </c>
       <c r="N103" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="O103" t="s">
         <v>875</v>
@@ -17464,7 +17428,7 @@
         <v>878</v>
       </c>
       <c r="T103" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="U103" t="s">
         <v>880</v>
@@ -17473,10 +17437,10 @@
         <v>880</v>
       </c>
       <c r="W103" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>45</v>
       </c>
@@ -17493,7 +17457,7 @@
         <v>28</v>
       </c>
       <c r="F104" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="G104" t="s">
         <v>498</v>
@@ -17505,7 +17469,7 @@
         <v>872</v>
       </c>
       <c r="K104" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="L104" t="s">
         <v>873</v>
@@ -17514,7 +17478,7 @@
         <v>873</v>
       </c>
       <c r="N104" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="O104" t="s">
         <v>875</v>
@@ -17532,7 +17496,7 @@
         <v>878</v>
       </c>
       <c r="T104" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="U104" t="s">
         <v>880</v>
@@ -17541,10 +17505,10 @@
         <v>880</v>
       </c>
       <c r="W104" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>45</v>
       </c>
@@ -17561,7 +17525,7 @@
         <v>28</v>
       </c>
       <c r="F105" t="s">
-        <v>226</v>
+        <v>1029</v>
       </c>
       <c r="G105" t="s">
         <v>498</v>
@@ -17573,7 +17537,7 @@
         <v>872</v>
       </c>
       <c r="K105" t="s">
-        <v>226</v>
+        <v>1029</v>
       </c>
       <c r="L105" t="s">
         <v>873</v>
@@ -17582,7 +17546,7 @@
         <v>873</v>
       </c>
       <c r="N105" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="O105" t="s">
         <v>875</v>
@@ -17600,7 +17564,7 @@
         <v>878</v>
       </c>
       <c r="T105" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="U105" t="s">
         <v>880</v>
@@ -17609,10 +17573,10 @@
         <v>880</v>
       </c>
       <c r="W105" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>45</v>
       </c>
@@ -17629,7 +17593,7 @@
         <v>28</v>
       </c>
       <c r="F106" t="s">
-        <v>1034</v>
+        <v>226</v>
       </c>
       <c r="G106" t="s">
         <v>498</v>
@@ -17641,7 +17605,7 @@
         <v>872</v>
       </c>
       <c r="K106" t="s">
-        <v>1034</v>
+        <v>226</v>
       </c>
       <c r="L106" t="s">
         <v>873</v>
@@ -17650,7 +17614,7 @@
         <v>873</v>
       </c>
       <c r="N106" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="O106" t="s">
         <v>875</v>
@@ -17659,7 +17623,7 @@
         <v>876</v>
       </c>
       <c r="Q106" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="R106" t="s">
         <v>878</v>
@@ -17668,7 +17632,7 @@
         <v>878</v>
       </c>
       <c r="T106" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="U106" t="s">
         <v>880</v>
@@ -17677,10 +17641,10 @@
         <v>880</v>
       </c>
       <c r="W106" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>45</v>
       </c>
@@ -17697,7 +17661,7 @@
         <v>28</v>
       </c>
       <c r="F107" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="G107" t="s">
         <v>498</v>
@@ -17709,7 +17673,7 @@
         <v>872</v>
       </c>
       <c r="K107" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="L107" t="s">
         <v>873</v>
@@ -17736,7 +17700,7 @@
         <v>878</v>
       </c>
       <c r="T107" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="U107" t="s">
         <v>880</v>
@@ -17745,10 +17709,10 @@
         <v>880</v>
       </c>
       <c r="W107" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>45</v>
       </c>
@@ -17765,7 +17729,7 @@
         <v>28</v>
       </c>
       <c r="F108" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="G108" t="s">
         <v>498</v>
@@ -17777,7 +17741,7 @@
         <v>872</v>
       </c>
       <c r="K108" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="L108" t="s">
         <v>873</v>
@@ -17786,7 +17750,7 @@
         <v>873</v>
       </c>
       <c r="N108" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="O108" t="s">
         <v>875</v>
@@ -17795,7 +17759,7 @@
         <v>876</v>
       </c>
       <c r="Q108" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="R108" t="s">
         <v>878</v>
@@ -17804,7 +17768,7 @@
         <v>878</v>
       </c>
       <c r="T108" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="U108" t="s">
         <v>880</v>
@@ -17813,10 +17777,10 @@
         <v>880</v>
       </c>
       <c r="W108" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>45</v>
       </c>
@@ -17833,7 +17797,7 @@
         <v>28</v>
       </c>
       <c r="F109" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="G109" t="s">
         <v>498</v>
@@ -17845,7 +17809,7 @@
         <v>872</v>
       </c>
       <c r="K109" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="L109" t="s">
         <v>873</v>
@@ -17854,7 +17818,7 @@
         <v>873</v>
       </c>
       <c r="N109" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="O109" t="s">
         <v>875</v>
@@ -17863,7 +17827,7 @@
         <v>876</v>
       </c>
       <c r="Q109" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="R109" t="s">
         <v>878</v>
@@ -17872,7 +17836,7 @@
         <v>878</v>
       </c>
       <c r="T109" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="U109" t="s">
         <v>880</v>
@@ -17881,10 +17845,10 @@
         <v>880</v>
       </c>
       <c r="W109" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>45</v>
       </c>
@@ -17901,7 +17865,7 @@
         <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="G110" t="s">
         <v>498</v>
@@ -17913,7 +17877,7 @@
         <v>872</v>
       </c>
       <c r="K110" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="L110" t="s">
         <v>873</v>
@@ -17922,7 +17886,7 @@
         <v>873</v>
       </c>
       <c r="N110" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="O110" t="s">
         <v>875</v>
@@ -17931,7 +17895,7 @@
         <v>876</v>
       </c>
       <c r="Q110" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="R110" t="s">
         <v>878</v>
@@ -17940,7 +17904,7 @@
         <v>878</v>
       </c>
       <c r="T110" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="U110" t="s">
         <v>880</v>
@@ -17949,10 +17913,10 @@
         <v>880</v>
       </c>
       <c r="W110" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>45</v>
       </c>
@@ -17969,7 +17933,7 @@
         <v>28</v>
       </c>
       <c r="F111" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="G111" t="s">
         <v>498</v>
@@ -17981,7 +17945,7 @@
         <v>872</v>
       </c>
       <c r="K111" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="L111" t="s">
         <v>873</v>
@@ -17990,7 +17954,7 @@
         <v>873</v>
       </c>
       <c r="N111" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="O111" t="s">
         <v>875</v>
@@ -17999,7 +17963,7 @@
         <v>876</v>
       </c>
       <c r="Q111" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="R111" t="s">
         <v>878</v>
@@ -18008,7 +17972,7 @@
         <v>878</v>
       </c>
       <c r="T111" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="U111" t="s">
         <v>880</v>
@@ -18017,10 +17981,10 @@
         <v>880</v>
       </c>
       <c r="W111" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>45</v>
       </c>
@@ -18037,7 +18001,7 @@
         <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="G112" t="s">
         <v>498</v>
@@ -18049,7 +18013,7 @@
         <v>872</v>
       </c>
       <c r="K112" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="L112" t="s">
         <v>873</v>
@@ -18058,7 +18022,7 @@
         <v>873</v>
       </c>
       <c r="N112" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="O112" t="s">
         <v>875</v>
@@ -18067,7 +18031,7 @@
         <v>876</v>
       </c>
       <c r="Q112" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="R112" t="s">
         <v>878</v>
@@ -18076,7 +18040,7 @@
         <v>878</v>
       </c>
       <c r="T112" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="U112" t="s">
         <v>880</v>
@@ -18085,10 +18049,10 @@
         <v>880</v>
       </c>
       <c r="W112" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>45</v>
       </c>
@@ -18105,7 +18069,7 @@
         <v>28</v>
       </c>
       <c r="F113" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="G113" t="s">
         <v>498</v>
@@ -18117,7 +18081,7 @@
         <v>872</v>
       </c>
       <c r="K113" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="L113" t="s">
         <v>873</v>
@@ -18126,7 +18090,7 @@
         <v>873</v>
       </c>
       <c r="N113" t="s">
-        <v>1037</v>
+        <v>1057</v>
       </c>
       <c r="O113" t="s">
         <v>875</v>
@@ -18135,7 +18099,7 @@
         <v>876</v>
       </c>
       <c r="Q113" t="s">
-        <v>1037</v>
+        <v>1058</v>
       </c>
       <c r="R113" t="s">
         <v>878</v>
@@ -18144,7 +18108,7 @@
         <v>878</v>
       </c>
       <c r="T113" t="s">
-        <v>1036</v>
+        <v>1059</v>
       </c>
       <c r="U113" t="s">
         <v>880</v>
@@ -18153,10 +18117,10 @@
         <v>880</v>
       </c>
       <c r="W113" t="s">
-        <v>1038</v>
+        <v>1060</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>45</v>
       </c>
@@ -18173,7 +18137,7 @@
         <v>28</v>
       </c>
       <c r="F114" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G114" t="s">
         <v>498</v>
@@ -18185,7 +18149,7 @@
         <v>872</v>
       </c>
       <c r="K114" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="L114" t="s">
         <v>873</v>
@@ -18194,7 +18158,7 @@
         <v>873</v>
       </c>
       <c r="N114" t="s">
-        <v>1063</v>
+        <v>1037</v>
       </c>
       <c r="O114" t="s">
         <v>875</v>
@@ -18203,7 +18167,7 @@
         <v>876</v>
       </c>
       <c r="Q114" t="s">
-        <v>1064</v>
+        <v>1037</v>
       </c>
       <c r="R114" t="s">
         <v>878</v>
@@ -18212,7 +18176,7 @@
         <v>878</v>
       </c>
       <c r="T114" t="s">
-        <v>1065</v>
+        <v>1036</v>
       </c>
       <c r="U114" t="s">
         <v>880</v>
@@ -18221,10 +18185,10 @@
         <v>880</v>
       </c>
       <c r="W114" t="s">
-        <v>1066</v>
+        <v>1038</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>45</v>
       </c>
@@ -18241,7 +18205,7 @@
         <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="G115" t="s">
         <v>498</v>
@@ -18253,7 +18217,7 @@
         <v>872</v>
       </c>
       <c r="K115" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="L115" t="s">
         <v>873</v>
@@ -18262,7 +18226,7 @@
         <v>873</v>
       </c>
       <c r="N115" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="O115" t="s">
         <v>875</v>
@@ -18271,7 +18235,7 @@
         <v>876</v>
       </c>
       <c r="Q115" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="R115" t="s">
         <v>878</v>
@@ -18280,7 +18244,7 @@
         <v>878</v>
       </c>
       <c r="T115" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="U115" t="s">
         <v>880</v>
@@ -18289,10 +18253,10 @@
         <v>880</v>
       </c>
       <c r="W115" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>45</v>
       </c>
@@ -18309,7 +18273,7 @@
         <v>28</v>
       </c>
       <c r="F116" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="G116" t="s">
         <v>498</v>
@@ -18321,7 +18285,7 @@
         <v>872</v>
       </c>
       <c r="K116" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="L116" t="s">
         <v>873</v>
@@ -18330,7 +18294,7 @@
         <v>873</v>
       </c>
       <c r="N116" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="O116" t="s">
         <v>875</v>
@@ -18339,7 +18303,7 @@
         <v>876</v>
       </c>
       <c r="Q116" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="R116" t="s">
         <v>878</v>
@@ -18348,7 +18312,7 @@
         <v>878</v>
       </c>
       <c r="T116" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="U116" t="s">
         <v>880</v>
@@ -18357,10 +18321,10 @@
         <v>880</v>
       </c>
       <c r="W116" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>45</v>
       </c>
@@ -18377,7 +18341,7 @@
         <v>28</v>
       </c>
       <c r="F117" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="G117" t="s">
         <v>498</v>
@@ -18389,7 +18353,7 @@
         <v>872</v>
       </c>
       <c r="K117" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="L117" t="s">
         <v>873</v>
@@ -18398,7 +18362,7 @@
         <v>873</v>
       </c>
       <c r="N117" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="O117" t="s">
         <v>875</v>
@@ -18407,7 +18371,7 @@
         <v>876</v>
       </c>
       <c r="Q117" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="R117" t="s">
         <v>878</v>
@@ -18416,7 +18380,7 @@
         <v>878</v>
       </c>
       <c r="T117" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="U117" t="s">
         <v>880</v>
@@ -18425,10 +18389,10 @@
         <v>880</v>
       </c>
       <c r="W117" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>45</v>
       </c>
@@ -18445,7 +18409,7 @@
         <v>28</v>
       </c>
       <c r="F118" t="s">
-        <v>239</v>
+        <v>1077</v>
       </c>
       <c r="G118" t="s">
         <v>498</v>
@@ -18457,7 +18421,7 @@
         <v>872</v>
       </c>
       <c r="K118" t="s">
-        <v>239</v>
+        <v>1077</v>
       </c>
       <c r="L118" t="s">
         <v>873</v>
@@ -18466,7 +18430,7 @@
         <v>873</v>
       </c>
       <c r="N118" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="O118" t="s">
         <v>875</v>
@@ -18475,7 +18439,7 @@
         <v>876</v>
       </c>
       <c r="Q118" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="R118" t="s">
         <v>878</v>
@@ -18484,7 +18448,7 @@
         <v>878</v>
       </c>
       <c r="T118" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="U118" t="s">
         <v>880</v>
@@ -18493,10 +18457,10 @@
         <v>880</v>
       </c>
       <c r="W118" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>45</v>
       </c>
@@ -18513,7 +18477,7 @@
         <v>28</v>
       </c>
       <c r="F119" t="s">
-        <v>1086</v>
+        <v>239</v>
       </c>
       <c r="G119" t="s">
         <v>498</v>
@@ -18525,7 +18489,7 @@
         <v>872</v>
       </c>
       <c r="K119" t="s">
-        <v>1086</v>
+        <v>239</v>
       </c>
       <c r="L119" t="s">
         <v>873</v>
@@ -18534,7 +18498,7 @@
         <v>873</v>
       </c>
       <c r="N119" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="O119" t="s">
         <v>875</v>
@@ -18543,7 +18507,7 @@
         <v>876</v>
       </c>
       <c r="Q119" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="R119" t="s">
         <v>878</v>
@@ -18552,7 +18516,7 @@
         <v>878</v>
       </c>
       <c r="T119" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="U119" t="s">
         <v>880</v>
@@ -18561,10 +18525,10 @@
         <v>880</v>
       </c>
       <c r="W119" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>45</v>
       </c>
@@ -18581,7 +18545,7 @@
         <v>28</v>
       </c>
       <c r="F120" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="G120" t="s">
         <v>498</v>
@@ -18593,7 +18557,7 @@
         <v>872</v>
       </c>
       <c r="K120" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="L120" t="s">
         <v>873</v>
@@ -18602,7 +18566,7 @@
         <v>873</v>
       </c>
       <c r="N120" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="O120" t="s">
         <v>875</v>
@@ -18611,7 +18575,7 @@
         <v>876</v>
       </c>
       <c r="Q120" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="R120" t="s">
         <v>878</v>
@@ -18620,7 +18584,7 @@
         <v>878</v>
       </c>
       <c r="T120" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="U120" t="s">
         <v>880</v>
@@ -18629,10 +18593,10 @@
         <v>880</v>
       </c>
       <c r="W120" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>45</v>
       </c>
@@ -18649,7 +18613,7 @@
         <v>28</v>
       </c>
       <c r="F121" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="G121" t="s">
         <v>498</v>
@@ -18661,7 +18625,7 @@
         <v>872</v>
       </c>
       <c r="K121" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="L121" t="s">
         <v>873</v>
@@ -18670,7 +18634,7 @@
         <v>873</v>
       </c>
       <c r="N121" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="O121" t="s">
         <v>875</v>
@@ -18679,7 +18643,7 @@
         <v>876</v>
       </c>
       <c r="Q121" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="R121" t="s">
         <v>878</v>
@@ -18688,7 +18652,7 @@
         <v>878</v>
       </c>
       <c r="T121" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="U121" t="s">
         <v>880</v>
@@ -18697,10 +18661,10 @@
         <v>880</v>
       </c>
       <c r="W121" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>45</v>
       </c>
@@ -18717,7 +18681,7 @@
         <v>28</v>
       </c>
       <c r="F122" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="G122" t="s">
         <v>498</v>
@@ -18729,7 +18693,7 @@
         <v>872</v>
       </c>
       <c r="K122" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="L122" t="s">
         <v>873</v>
@@ -18738,7 +18702,7 @@
         <v>873</v>
       </c>
       <c r="N122" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="O122" t="s">
         <v>875</v>
@@ -18747,7 +18711,7 @@
         <v>876</v>
       </c>
       <c r="Q122" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="R122" t="s">
         <v>878</v>
@@ -18756,7 +18720,7 @@
         <v>878</v>
       </c>
       <c r="T122" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="U122" t="s">
         <v>880</v>
@@ -18765,10 +18729,10 @@
         <v>880</v>
       </c>
       <c r="W122" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>45</v>
       </c>
@@ -18785,7 +18749,7 @@
         <v>28</v>
       </c>
       <c r="F123" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="G123" t="s">
         <v>498</v>
@@ -18797,7 +18761,7 @@
         <v>872</v>
       </c>
       <c r="K123" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="L123" t="s">
         <v>873</v>
@@ -18806,7 +18770,7 @@
         <v>873</v>
       </c>
       <c r="N123" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="O123" t="s">
         <v>875</v>
@@ -18815,7 +18779,7 @@
         <v>876</v>
       </c>
       <c r="Q123" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="R123" t="s">
         <v>878</v>
@@ -18824,7 +18788,7 @@
         <v>878</v>
       </c>
       <c r="T123" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="U123" t="s">
         <v>880</v>
@@ -18833,10 +18797,10 @@
         <v>880</v>
       </c>
       <c r="W123" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>45</v>
       </c>
@@ -18853,7 +18817,7 @@
         <v>28</v>
       </c>
       <c r="F124" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="G124" t="s">
         <v>498</v>
@@ -18865,7 +18829,7 @@
         <v>872</v>
       </c>
       <c r="K124" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="L124" t="s">
         <v>873</v>
@@ -18874,7 +18838,7 @@
         <v>873</v>
       </c>
       <c r="N124" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="O124" t="s">
         <v>875</v>
@@ -18883,7 +18847,7 @@
         <v>876</v>
       </c>
       <c r="Q124" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="R124" t="s">
         <v>878</v>
@@ -18892,7 +18856,7 @@
         <v>878</v>
       </c>
       <c r="T124" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="U124" t="s">
         <v>880</v>
@@ -18901,10 +18865,10 @@
         <v>880</v>
       </c>
       <c r="W124" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>45</v>
       </c>
@@ -18921,7 +18885,7 @@
         <v>28</v>
       </c>
       <c r="F125" t="s">
-        <v>191</v>
+        <v>1110</v>
       </c>
       <c r="G125" t="s">
         <v>498</v>
@@ -18933,7 +18897,7 @@
         <v>872</v>
       </c>
       <c r="K125" t="s">
-        <v>191</v>
+        <v>1110</v>
       </c>
       <c r="L125" t="s">
         <v>873</v>
@@ -18942,7 +18906,7 @@
         <v>873</v>
       </c>
       <c r="N125" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="O125" t="s">
         <v>875</v>
@@ -18951,7 +18915,7 @@
         <v>876</v>
       </c>
       <c r="Q125" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="R125" t="s">
         <v>878</v>
@@ -18960,7 +18924,7 @@
         <v>878</v>
       </c>
       <c r="T125" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="U125" t="s">
         <v>880</v>
@@ -18969,10 +18933,10 @@
         <v>880</v>
       </c>
       <c r="W125" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>45</v>
       </c>
@@ -18989,7 +18953,7 @@
         <v>28</v>
       </c>
       <c r="F126" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G126" t="s">
         <v>498</v>
@@ -19001,7 +18965,7 @@
         <v>872</v>
       </c>
       <c r="K126" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L126" t="s">
         <v>873</v>
@@ -19010,7 +18974,7 @@
         <v>873</v>
       </c>
       <c r="N126" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="O126" t="s">
         <v>875</v>
@@ -19019,7 +18983,7 @@
         <v>876</v>
       </c>
       <c r="Q126" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="R126" t="s">
         <v>878</v>
@@ -19028,7 +18992,7 @@
         <v>878</v>
       </c>
       <c r="T126" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="U126" t="s">
         <v>880</v>
@@ -19037,10 +19001,10 @@
         <v>880</v>
       </c>
       <c r="W126" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>45</v>
       </c>
@@ -19057,7 +19021,7 @@
         <v>28</v>
       </c>
       <c r="F127" t="s">
-        <v>1123</v>
+        <v>196</v>
       </c>
       <c r="G127" t="s">
         <v>498</v>
@@ -19069,7 +19033,7 @@
         <v>872</v>
       </c>
       <c r="K127" t="s">
-        <v>1123</v>
+        <v>196</v>
       </c>
       <c r="L127" t="s">
         <v>873</v>
@@ -19078,7 +19042,7 @@
         <v>873</v>
       </c>
       <c r="N127" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="O127" t="s">
         <v>875</v>
@@ -19087,7 +19051,7 @@
         <v>876</v>
       </c>
       <c r="Q127" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="R127" t="s">
         <v>878</v>
@@ -19096,7 +19060,7 @@
         <v>878</v>
       </c>
       <c r="T127" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="U127" t="s">
         <v>880</v>
@@ -19105,10 +19069,10 @@
         <v>880</v>
       </c>
       <c r="W127" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>45</v>
       </c>
@@ -19125,7 +19089,7 @@
         <v>28</v>
       </c>
       <c r="F128" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="G128" t="s">
         <v>498</v>
@@ -19137,7 +19101,7 @@
         <v>872</v>
       </c>
       <c r="K128" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="L128" t="s">
         <v>873</v>
@@ -19146,7 +19110,7 @@
         <v>873</v>
       </c>
       <c r="N128" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="O128" t="s">
         <v>875</v>
@@ -19155,7 +19119,7 @@
         <v>876</v>
       </c>
       <c r="Q128" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="R128" t="s">
         <v>878</v>
@@ -19164,7 +19128,7 @@
         <v>878</v>
       </c>
       <c r="T128" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="U128" t="s">
         <v>880</v>
@@ -19173,10 +19137,10 @@
         <v>880</v>
       </c>
       <c r="W128" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>45</v>
       </c>
@@ -19193,7 +19157,7 @@
         <v>28</v>
       </c>
       <c r="F129" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="G129" t="s">
         <v>498</v>
@@ -19205,7 +19169,7 @@
         <v>872</v>
       </c>
       <c r="K129" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="L129" t="s">
         <v>873</v>
@@ -19214,7 +19178,7 @@
         <v>873</v>
       </c>
       <c r="N129" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="O129" t="s">
         <v>875</v>
@@ -19223,7 +19187,7 @@
         <v>876</v>
       </c>
       <c r="Q129" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="R129" t="s">
         <v>878</v>
@@ -19232,7 +19196,7 @@
         <v>878</v>
       </c>
       <c r="T129" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="U129" t="s">
         <v>880</v>
@@ -19241,10 +19205,10 @@
         <v>880</v>
       </c>
       <c r="W129" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>45</v>
       </c>
@@ -19261,7 +19225,7 @@
         <v>28</v>
       </c>
       <c r="F130" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="G130" t="s">
         <v>498</v>
@@ -19273,7 +19237,7 @@
         <v>872</v>
       </c>
       <c r="K130" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="L130" t="s">
         <v>873</v>
@@ -19282,7 +19246,7 @@
         <v>873</v>
       </c>
       <c r="N130" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="O130" t="s">
         <v>875</v>
@@ -19291,7 +19255,7 @@
         <v>876</v>
       </c>
       <c r="Q130" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="R130" t="s">
         <v>878</v>
@@ -19300,7 +19264,7 @@
         <v>878</v>
       </c>
       <c r="T130" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="U130" t="s">
         <v>880</v>
@@ -19309,10 +19273,10 @@
         <v>880</v>
       </c>
       <c r="W130" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -19329,7 +19293,7 @@
         <v>28</v>
       </c>
       <c r="F131" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="G131" t="s">
         <v>498</v>
@@ -19341,7 +19305,7 @@
         <v>872</v>
       </c>
       <c r="K131" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="L131" t="s">
         <v>873</v>
@@ -19350,7 +19314,7 @@
         <v>873</v>
       </c>
       <c r="N131" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="O131" t="s">
         <v>875</v>
@@ -19359,7 +19323,7 @@
         <v>876</v>
       </c>
       <c r="Q131" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="R131" t="s">
         <v>878</v>
@@ -19368,7 +19332,7 @@
         <v>878</v>
       </c>
       <c r="T131" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="U131" t="s">
         <v>880</v>
@@ -19377,10 +19341,10 @@
         <v>880</v>
       </c>
       <c r="W131" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>45</v>
       </c>
@@ -19397,7 +19361,7 @@
         <v>28</v>
       </c>
       <c r="F132" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="G132" t="s">
         <v>498</v>
@@ -19409,7 +19373,7 @@
         <v>872</v>
       </c>
       <c r="K132" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="L132" t="s">
         <v>873</v>
@@ -19418,7 +19382,7 @@
         <v>873</v>
       </c>
       <c r="N132" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="O132" t="s">
         <v>875</v>
@@ -19427,7 +19391,7 @@
         <v>876</v>
       </c>
       <c r="Q132" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="R132" t="s">
         <v>878</v>
@@ -19436,7 +19400,7 @@
         <v>878</v>
       </c>
       <c r="T132" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="U132" t="s">
         <v>880</v>
@@ -19445,10 +19409,10 @@
         <v>880</v>
       </c>
       <c r="W132" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>45</v>
       </c>
@@ -19465,7 +19429,7 @@
         <v>28</v>
       </c>
       <c r="F133" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="G133" t="s">
         <v>498</v>
@@ -19477,7 +19441,7 @@
         <v>872</v>
       </c>
       <c r="K133" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="L133" t="s">
         <v>873</v>
@@ -19486,7 +19450,7 @@
         <v>873</v>
       </c>
       <c r="N133" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="O133" t="s">
         <v>875</v>
@@ -19495,7 +19459,7 @@
         <v>876</v>
       </c>
       <c r="Q133" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="R133" t="s">
         <v>878</v>
@@ -19504,7 +19468,7 @@
         <v>878</v>
       </c>
       <c r="T133" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="U133" t="s">
         <v>880</v>
@@ -19513,10 +19477,10 @@
         <v>880</v>
       </c>
       <c r="W133" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>45</v>
       </c>
@@ -19533,7 +19497,7 @@
         <v>28</v>
       </c>
       <c r="F134" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="G134" t="s">
         <v>498</v>
@@ -19545,7 +19509,7 @@
         <v>872</v>
       </c>
       <c r="K134" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="L134" t="s">
         <v>873</v>
@@ -19554,7 +19518,7 @@
         <v>873</v>
       </c>
       <c r="N134" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="O134" t="s">
         <v>875</v>
@@ -19563,7 +19527,7 @@
         <v>876</v>
       </c>
       <c r="Q134" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="R134" t="s">
         <v>878</v>
@@ -19572,7 +19536,7 @@
         <v>878</v>
       </c>
       <c r="T134" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="U134" t="s">
         <v>880</v>
@@ -19581,10 +19545,10 @@
         <v>880</v>
       </c>
       <c r="W134" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>45</v>
       </c>
@@ -19601,7 +19565,7 @@
         <v>28</v>
       </c>
       <c r="F135" t="s">
-        <v>58</v>
+        <v>1158</v>
       </c>
       <c r="G135" t="s">
         <v>498</v>
@@ -19613,7 +19577,7 @@
         <v>872</v>
       </c>
       <c r="K135" t="s">
-        <v>58</v>
+        <v>1158</v>
       </c>
       <c r="L135" t="s">
         <v>873</v>
@@ -19622,7 +19586,7 @@
         <v>873</v>
       </c>
       <c r="N135" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="O135" t="s">
         <v>875</v>
@@ -19631,7 +19595,7 @@
         <v>876</v>
       </c>
       <c r="Q135" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="R135" t="s">
         <v>878</v>
@@ -19640,7 +19604,7 @@
         <v>878</v>
       </c>
       <c r="T135" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="U135" t="s">
         <v>880</v>
@@ -19649,10 +19613,10 @@
         <v>880</v>
       </c>
       <c r="W135" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>45</v>
       </c>
@@ -19669,7 +19633,7 @@
         <v>28</v>
       </c>
       <c r="F136" t="s">
-        <v>410</v>
+        <v>58</v>
       </c>
       <c r="G136" t="s">
         <v>498</v>
@@ -19681,7 +19645,7 @@
         <v>872</v>
       </c>
       <c r="K136" t="s">
-        <v>410</v>
+        <v>58</v>
       </c>
       <c r="L136" t="s">
         <v>873</v>
@@ -19690,7 +19654,7 @@
         <v>873</v>
       </c>
       <c r="N136" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="O136" t="s">
         <v>875</v>
@@ -19699,7 +19663,7 @@
         <v>876</v>
       </c>
       <c r="Q136" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="R136" t="s">
         <v>878</v>
@@ -19708,7 +19672,7 @@
         <v>878</v>
       </c>
       <c r="T136" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="U136" t="s">
         <v>880</v>
@@ -19717,10 +19681,10 @@
         <v>880</v>
       </c>
       <c r="W136" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>45</v>
       </c>
@@ -19737,7 +19701,7 @@
         <v>28</v>
       </c>
       <c r="F137" t="s">
-        <v>1169</v>
+        <v>410</v>
       </c>
       <c r="G137" t="s">
         <v>498</v>
@@ -19749,7 +19713,7 @@
         <v>872</v>
       </c>
       <c r="K137" t="s">
-        <v>1169</v>
+        <v>410</v>
       </c>
       <c r="L137" t="s">
         <v>873</v>
@@ -19758,7 +19722,7 @@
         <v>873</v>
       </c>
       <c r="N137" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="O137" t="s">
         <v>875</v>
@@ -19767,7 +19731,7 @@
         <v>876</v>
       </c>
       <c r="Q137" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="R137" t="s">
         <v>878</v>
@@ -19776,7 +19740,7 @@
         <v>878</v>
       </c>
       <c r="T137" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="U137" t="s">
         <v>880</v>
@@ -19785,10 +19749,10 @@
         <v>880</v>
       </c>
       <c r="W137" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>45</v>
       </c>
@@ -19805,7 +19769,7 @@
         <v>28</v>
       </c>
       <c r="F138" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="G138" t="s">
         <v>498</v>
@@ -19817,7 +19781,7 @@
         <v>872</v>
       </c>
       <c r="K138" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="L138" t="s">
         <v>873</v>
@@ -19826,7 +19790,7 @@
         <v>873</v>
       </c>
       <c r="N138" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="O138" t="s">
         <v>875</v>
@@ -19835,7 +19799,7 @@
         <v>876</v>
       </c>
       <c r="Q138" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="R138" t="s">
         <v>878</v>
@@ -19844,7 +19808,7 @@
         <v>878</v>
       </c>
       <c r="T138" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="U138" t="s">
         <v>880</v>
@@ -19853,10 +19817,10 @@
         <v>880</v>
       </c>
       <c r="W138" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>45</v>
       </c>
@@ -19873,7 +19837,7 @@
         <v>28</v>
       </c>
       <c r="F139" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="G139" t="s">
         <v>498</v>
@@ -19885,7 +19849,7 @@
         <v>872</v>
       </c>
       <c r="K139" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="L139" t="s">
         <v>873</v>
@@ -19894,7 +19858,7 @@
         <v>873</v>
       </c>
       <c r="N139" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="O139" t="s">
         <v>875</v>
@@ -19903,7 +19867,7 @@
         <v>876</v>
       </c>
       <c r="Q139" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="R139" t="s">
         <v>878</v>
@@ -19912,7 +19876,7 @@
         <v>878</v>
       </c>
       <c r="T139" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="U139" t="s">
         <v>880</v>
@@ -19921,10 +19885,10 @@
         <v>880</v>
       </c>
       <c r="W139" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>45</v>
       </c>
@@ -19941,7 +19905,7 @@
         <v>28</v>
       </c>
       <c r="F140" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="G140" t="s">
         <v>498</v>
@@ -19953,7 +19917,7 @@
         <v>872</v>
       </c>
       <c r="K140" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="L140" t="s">
         <v>873</v>
@@ -19962,7 +19926,7 @@
         <v>873</v>
       </c>
       <c r="N140" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="O140" t="s">
         <v>875</v>
@@ -19971,7 +19935,7 @@
         <v>876</v>
       </c>
       <c r="Q140" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="R140" t="s">
         <v>878</v>
@@ -19980,7 +19944,7 @@
         <v>878</v>
       </c>
       <c r="T140" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="U140" t="s">
         <v>880</v>
@@ -19989,6 +19953,74 @@
         <v>880</v>
       </c>
       <c r="W140" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B141" t="s">
+        <v>496</v>
+      </c>
+      <c r="C141" t="s">
+        <v>45</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" t="s">
+        <v>28</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G141" t="s">
+        <v>498</v>
+      </c>
+      <c r="I141" t="s">
+        <v>872</v>
+      </c>
+      <c r="J141" t="s">
+        <v>872</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L141" t="s">
+        <v>873</v>
+      </c>
+      <c r="M141" t="s">
+        <v>873</v>
+      </c>
+      <c r="N141" t="s">
+        <v>1185</v>
+      </c>
+      <c r="O141" t="s">
+        <v>875</v>
+      </c>
+      <c r="P141" t="s">
+        <v>876</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>1186</v>
+      </c>
+      <c r="R141" t="s">
+        <v>878</v>
+      </c>
+      <c r="S141" t="s">
+        <v>878</v>
+      </c>
+      <c r="T141" t="s">
+        <v>1187</v>
+      </c>
+      <c r="U141" t="s">
+        <v>880</v>
+      </c>
+      <c r="V141" t="s">
+        <v>880</v>
+      </c>
+      <c r="W141" t="s">
         <v>1188</v>
       </c>
     </row>

--- a/models/Czech.xlsx
+++ b/models/Czech.xlsx
@@ -3708,13 +3708,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3766,7 +3766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3780,22 +3780,25 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -4187,43 +4190,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="59.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="41.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="47.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="11" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="11" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="11" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="59.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="41.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="15.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="47.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="12" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="12" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="18.576428571428572" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="6" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="25.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="11" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="11" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="11" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="12" width="25.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="12" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="12" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="12" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="12" width="20.862142857142857" customWidth="1" bestFit="1"/>
     <col min="28" max="28" style="6" width="81.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="81.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="6" width="81.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="6" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="6" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="6" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="12" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="7" width="81.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="7" width="81.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="7" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="7" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="13" width="16.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>812</v>
       </c>
@@ -4323,11 +4326,11 @@
       <c r="AG1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>817</v>
       </c>
@@ -4412,7 +4415,7 @@
       <c r="AB2" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="AC2" s="3"/>
+      <c r="AC2" s="9"/>
       <c r="AD2" s="1" t="s">
         <v>828</v>
       </c>
@@ -4425,11 +4428,11 @@
       <c r="AG2" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="AH2" s="9">
+      <c r="AH2" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>832</v>
       </c>
@@ -4527,11 +4530,11 @@
       <c r="AG3" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AH3" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>844</v>
       </c>
@@ -4629,11 +4632,11 @@
       <c r="AG4" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="AH4" s="9">
+      <c r="AH4" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>857</v>
       </c>
@@ -4733,11 +4736,11 @@
       <c r="AG5" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="AH5" s="9">
+      <c r="AH5" s="10">
         <f>TRUE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>867</v>
       </c>
@@ -4835,11 +4838,11 @@
       <c r="AG6" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="AH6" s="9">
+      <c r="AH6" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>878</v>
       </c>
@@ -4937,11 +4940,11 @@
       <c r="AG7" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="AH7" s="9">
+      <c r="AH7" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>884</v>
       </c>
@@ -5041,11 +5044,11 @@
       <c r="AG8" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="AH8" s="9">
+      <c r="AH8" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>895</v>
       </c>
@@ -5143,11 +5146,11 @@
       <c r="AG9" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="AH9" s="9">
+      <c r="AH9" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>904</v>
       </c>
@@ -5245,11 +5248,11 @@
       <c r="AG10" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="AH10" s="9">
+      <c r="AH10" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>910</v>
       </c>
@@ -5349,11 +5352,11 @@
       <c r="AG11" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="AH11" s="9">
+      <c r="AH11" s="10">
         <f>TRUE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>916</v>
       </c>
@@ -5451,11 +5454,11 @@
       <c r="AG12" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="AH12" s="9">
+      <c r="AH12" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>922</v>
       </c>
@@ -5555,11 +5558,11 @@
       <c r="AG13" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH13" s="9">
+      <c r="AH13" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>928</v>
       </c>
@@ -5657,11 +5660,11 @@
       <c r="AG14" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH14" s="9">
+      <c r="AH14" s="10">
         <f>TRUE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>934</v>
       </c>
@@ -5759,11 +5762,11 @@
       <c r="AG15" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH15" s="9">
+      <c r="AH15" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>941</v>
       </c>
@@ -5861,11 +5864,11 @@
       <c r="AG16" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH16" s="9">
+      <c r="AH16" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>945</v>
       </c>
@@ -5961,11 +5964,11 @@
       <c r="AG17" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="AH17" s="9">
+      <c r="AH17" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>952</v>
       </c>
@@ -6063,11 +6066,11 @@
       <c r="AG18" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="AH18" s="9">
+      <c r="AH18" s="10">
         <f>TRUE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>959</v>
       </c>
@@ -6165,11 +6168,11 @@
       <c r="AG19" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH19" s="9">
+      <c r="AH19" s="10">
         <f>TRUE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>965</v>
       </c>
@@ -6269,11 +6272,11 @@
       <c r="AG20" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="AH20" s="9">
+      <c r="AH20" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>973</v>
       </c>
@@ -6371,11 +6374,11 @@
       <c r="AG21" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="AH21" s="10" t="s">
+      <c r="AH21" s="11" t="s">
         <v>978</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>979</v>
       </c>
@@ -6460,7 +6463,7 @@
       <c r="AB22" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="AC22" s="3"/>
+      <c r="AC22" s="9"/>
       <c r="AD22" s="1" t="s">
         <v>983</v>
       </c>
@@ -6473,11 +6476,11 @@
       <c r="AG22" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="AH22" s="9">
+      <c r="AH22" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>985</v>
       </c>
@@ -6577,11 +6580,11 @@
       <c r="AG23" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH23" s="9">
+      <c r="AH23" s="10">
         <f>TRUE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>993</v>
       </c>
@@ -6681,11 +6684,11 @@
       <c r="AG24" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="AH24" s="9">
+      <c r="AH24" s="10">
         <f>FALSE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1" t="s">
         <v>1001</v>
       </c>
@@ -6785,11 +6788,11 @@
       <c r="AG25" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="AH25" s="9">
+      <c r="AH25" s="10">
         <f>TRUE()</f>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>1009</v>
       </c>
@@ -6889,7 +6892,7 @@
       <c r="AG26" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH26" s="9">
+      <c r="AH26" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -6991,7 +6994,7 @@
       <c r="AG27" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="AH27" s="9">
+      <c r="AH27" s="10">
         <f>TRUE()</f>
       </c>
     </row>
@@ -7095,7 +7098,7 @@
       <c r="AG28" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="AH28" s="9">
+      <c r="AH28" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -7195,7 +7198,7 @@
       <c r="AG29" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="AH29" s="9">
+      <c r="AH29" s="10">
         <f>TRUE()</f>
       </c>
     </row>
@@ -7284,7 +7287,7 @@
       <c r="AB30" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="AC30" s="3"/>
+      <c r="AC30" s="9"/>
       <c r="AD30" s="1" t="s">
         <v>1041</v>
       </c>
@@ -7297,7 +7300,7 @@
       <c r="AG30" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="AH30" s="9">
+      <c r="AH30" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -7386,7 +7389,7 @@
       <c r="AB31" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="AC31" s="3"/>
+      <c r="AC31" s="9"/>
       <c r="AD31" s="1" t="s">
         <v>1047</v>
       </c>
@@ -7399,7 +7402,7 @@
       <c r="AG31" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH31" s="9">
+      <c r="AH31" s="10">
         <f>TRUE()</f>
       </c>
     </row>
@@ -7501,7 +7504,7 @@
       <c r="AG32" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="AH32" s="9">
+      <c r="AH32" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -7605,7 +7608,7 @@
       <c r="AG33" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH33" s="9">
+      <c r="AH33" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -7707,7 +7710,7 @@
       <c r="AG34" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="AH34" s="9">
+      <c r="AH34" s="10">
         <f>TRUE()</f>
       </c>
     </row>
@@ -7811,7 +7814,7 @@
       <c r="AG35" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="AH35" s="9">
+      <c r="AH35" s="10">
         <f>TRUE()</f>
       </c>
     </row>
@@ -7903,7 +7906,7 @@
       <c r="AC36" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="AD36" s="3"/>
+      <c r="AD36" s="9"/>
       <c r="AE36" s="1" t="s">
         <v>841</v>
       </c>
@@ -7913,7 +7916,7 @@
       <c r="AG36" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH36" s="9">
+      <c r="AH36" s="10">
         <f>TRUE()</f>
       </c>
     </row>
@@ -8015,7 +8018,7 @@
       <c r="AG37" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="AH37" s="9">
+      <c r="AH37" s="10">
         <f>TRUE()</f>
       </c>
     </row>
@@ -8119,7 +8122,7 @@
       <c r="AG38" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="AH38" s="9">
+      <c r="AH38" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -8223,7 +8226,7 @@
       <c r="AG39" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="AH39" s="9">
+      <c r="AH39" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -8325,7 +8328,7 @@
       <c r="AG40" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="AH40" s="10" t="s">
+      <c r="AH40" s="11" t="s">
         <v>978</v>
       </c>
     </row>
@@ -8425,7 +8428,7 @@
       <c r="AG41" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="AH41" s="10" t="s">
+      <c r="AH41" s="11" t="s">
         <v>978</v>
       </c>
     </row>
@@ -8512,7 +8515,7 @@
       <c r="AB42" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="AC42" s="3"/>
+      <c r="AC42" s="9"/>
       <c r="AD42" s="1" t="s">
         <v>1121</v>
       </c>
@@ -8525,7 +8528,7 @@
       <c r="AG42" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="AH42" s="9">
+      <c r="AH42" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -8612,7 +8615,7 @@
       <c r="AB43" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="AC43" s="3"/>
+      <c r="AC43" s="9"/>
       <c r="AD43" s="1" t="s">
         <v>1127</v>
       </c>
@@ -8625,7 +8628,7 @@
       <c r="AG43" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="AH43" s="9">
+      <c r="AH43" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -8729,7 +8732,7 @@
       <c r="AG44" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="AH44" s="9">
+      <c r="AH44" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -8831,7 +8834,7 @@
       <c r="AG45" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="AH45" s="9">
+      <c r="AH45" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -8933,7 +8936,7 @@
       <c r="AG46" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH46" s="10" t="s">
+      <c r="AH46" s="11" t="s">
         <v>978</v>
       </c>
     </row>
@@ -9035,7 +9038,7 @@
       <c r="AG47" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH47" s="9">
+      <c r="AH47" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -9135,7 +9138,7 @@
       <c r="AG48" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="AH48" s="9">
+      <c r="AH48" s="10">
         <f>TRUE()</f>
       </c>
     </row>
@@ -9222,7 +9225,7 @@
       <c r="AB49" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="AC49" s="3"/>
+      <c r="AC49" s="9"/>
       <c r="AD49" s="1" t="s">
         <v>1161</v>
       </c>
@@ -9235,7 +9238,7 @@
       <c r="AG49" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="AH49" s="9">
+      <c r="AH49" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -9337,7 +9340,7 @@
       <c r="AG50" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="AH50" s="9">
+      <c r="AH50" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -9424,7 +9427,7 @@
       <c r="AB51" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="AC51" s="3"/>
+      <c r="AC51" s="9"/>
       <c r="AD51" s="1" t="s">
         <v>1172</v>
       </c>
@@ -9437,7 +9440,7 @@
       <c r="AG51" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="AH51" s="9">
+      <c r="AH51" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -9524,7 +9527,7 @@
       <c r="AB52" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="AC52" s="3"/>
+      <c r="AC52" s="9"/>
       <c r="AD52" s="1" t="s">
         <v>1178</v>
       </c>
@@ -9537,7 +9540,7 @@
       <c r="AG52" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="AH52" s="9">
+      <c r="AH52" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -9626,7 +9629,7 @@
       <c r="AB53" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="AC53" s="3"/>
+      <c r="AC53" s="9"/>
       <c r="AD53" s="1" t="s">
         <v>1183</v>
       </c>
@@ -9639,7 +9642,7 @@
       <c r="AG53" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="AH53" s="9">
+      <c r="AH53" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -9741,7 +9744,7 @@
       <c r="AG54" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="AH54" s="9">
+      <c r="AH54" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -9843,7 +9846,7 @@
       <c r="AG55" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="AH55" s="9">
+      <c r="AH55" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -9945,7 +9948,7 @@
       <c r="AG56" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="AH56" s="9">
+      <c r="AH56" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -10045,7 +10048,7 @@
       <c r="AG57" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH57" s="9">
+      <c r="AH57" s="10">
         <f>TRUE()</f>
       </c>
     </row>
@@ -10147,7 +10150,7 @@
       <c r="AG58" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="AH58" s="9">
+      <c r="AH58" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -10249,7 +10252,7 @@
       <c r="AG59" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH59" s="9">
+      <c r="AH59" s="10">
         <f>FALSE()</f>
       </c>
     </row>
@@ -10349,7 +10352,7 @@
       <c r="AG60" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="AH60" s="9">
+      <c r="AH60" s="10">
         <f>TRUE()</f>
       </c>
     </row>
@@ -10373,28 +10376,28 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="6" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="38.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="41.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="60.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="35.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="60.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="27.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="47.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="70.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="37.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="45.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="63.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="26.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="38.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="47.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="38.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="41.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="60.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="7" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="35.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="7" width="60.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="7" width="27.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="47.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="70.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="37.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="45.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="7" width="63.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="7" width="26.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="7" width="38.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="7" width="47.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
